--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E47538-0444-4B91-A73B-A258555EF938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3985572-37B4-4674-A18A-B9F94DED676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>INDEX (FIG, CIT)</t>
   </si>
@@ -73,13 +73,25 @@
   </si>
   <si>
     <t>https://www.larousse.fr/dictionnaires/francais/technologie/76961#definition</t>
+  </si>
+  <si>
+    <t>1,1,3</t>
+  </si>
+  <si>
+    <t>CIT02</t>
+  </si>
+  <si>
+    <t>Emile Roche</t>
+  </si>
+  <si>
+    <t>Préface du livre Le pari informatique de Pierre Lhermitte, page 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +106,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -125,6 +149,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -406,18 +432,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -472,6 +498,23 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E3">
@@ -481,5 +524,6 @@
     <hyperlink ref="E2" r:id="rId1" location="definition" xr:uid="{53FE3B05-AD56-43B0-AFD3-3B30FFF4103B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3985572-37B4-4674-A18A-B9F94DED676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E407BD4F-E7C8-4694-BB52-AF6CB371C156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30690" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>INDEX (FIG, CIT)</t>
   </si>
@@ -85,6 +85,30 @@
   </si>
   <si>
     <t>Préface du livre Le pari informatique de Pierre Lhermitte, page 8</t>
+  </si>
+  <si>
+    <t>1,2,1</t>
+  </si>
+  <si>
+    <t>CIT03</t>
+  </si>
+  <si>
+    <t>Une histoire environnementale du monde, chapitre 3</t>
+  </si>
+  <si>
+    <t>J. Donald Hughes</t>
+  </si>
+  <si>
+    <t>1,2,2</t>
+  </si>
+  <si>
+    <t>CIT04</t>
+  </si>
+  <si>
+    <t>Silent Spring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel Carson </t>
   </si>
 </sst>
 </file>
@@ -110,14 +134,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -150,7 +174,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -432,18 +455,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -506,20 +529,46 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E3">
     <sortCondition ref="A2:A3"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="definition" xr:uid="{53FE3B05-AD56-43B0-AFD3-3B30FFF4103B}"/>
   </hyperlinks>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E407BD4F-E7C8-4694-BB52-AF6CB371C156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800CEF40-DA78-400C-95DB-CC76FEE7A0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30690" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>INDEX (FIG, CIT)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Partie ?</t>
   </si>
@@ -109,6 +106,40 @@
   </si>
   <si>
     <t xml:space="preserve">Rachel Carson </t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>FIG02</t>
+  </si>
+  <si>
+    <t>INDEX
+(FIG, CIT)</t>
+  </si>
+  <si>
+    <t>GLOBAL LAND-OCEAN TEMPERATURE INDEX</t>
+  </si>
+  <si>
+    <t>NASA's Goddard Institute for Space Studies (GISS)</t>
+  </si>
+  <si>
+    <t>https://climate.nasa.gov/vital-signs/global-temperature/</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>FIG03</t>
+  </si>
+  <si>
+    <t>Total U.S. Greenhouse Gas Emissions by Economic Sector in 2020</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/ghgemissions/sources-greenhouse-gas-emissions</t>
+  </si>
+  <si>
+    <t>EPA</t>
   </si>
 </sst>
 </file>
@@ -152,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,20 +191,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -455,113 +509,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -571,8 +660,10 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="definition" xr:uid="{53FE3B05-AD56-43B0-AFD3-3B30FFF4103B}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00D33B7A-1C7C-42B6-A230-EEDF19A87528}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{EBCE9B6B-340F-4C64-964B-563D0EF89E25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800CEF40-DA78-400C-95DB-CC76FEE7A0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE67D9F-1383-4E8B-80F1-F4CF70002B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30690" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Partie ?</t>
   </si>
@@ -140,6 +140,21 @@
   </si>
   <si>
     <t>EPA</t>
+  </si>
+  <si>
+    <t>https://www.amnesty.org/fr/documents/afr62/3183/2016/fr/</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>CIT05</t>
+  </si>
+  <si>
+    <t>This is what we die for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amnesty International </t>
   </si>
 </sst>
 </file>
@@ -509,11 +524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,6 +668,23 @@
         <v>35</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E3">
     <sortCondition ref="A2:A3"/>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE67D9F-1383-4E8B-80F1-F4CF70002B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD61154-9267-4210-91BD-E265315A506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30690" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Partie ?</t>
   </si>
@@ -155,6 +155,48 @@
   </si>
   <si>
     <t xml:space="preserve">Amnesty International </t>
+  </si>
+  <si>
+    <t>1,2,6</t>
+  </si>
+  <si>
+    <t>CIT06</t>
+  </si>
+  <si>
+    <t>François Chabaux</t>
+  </si>
+  <si>
+    <t>L'Eau, une ressource menacée: Une introduction à l'hydrologie , page 105</t>
+  </si>
+  <si>
+    <t>CIT07</t>
+  </si>
+  <si>
+    <t>1,2,7</t>
+  </si>
+  <si>
+    <t>Convention relative aux droits de l'enfant, article 19.1</t>
+  </si>
+  <si>
+    <t>ONU</t>
+  </si>
+  <si>
+    <t>https://www.ohchr.org/fr/instruments-mechanisms/instruments/convention-rights-child#19</t>
+  </si>
+  <si>
+    <t>https://www.greenpeace.org/static/planet4-international-stateless/2012/04/e7c8ff21-howcleanisyourcloud.pdf</t>
+  </si>
+  <si>
+    <t>How Clean is Your Cloud </t>
+  </si>
+  <si>
+    <t>Greenpeace</t>
+  </si>
+  <si>
+    <t>1,2,8</t>
+  </si>
+  <si>
+    <t>CIT08</t>
   </si>
 </sst>
 </file>
@@ -524,20 +566,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -685,9 +727,57 @@
         <v>37</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E3">
-    <sortCondition ref="A2:A3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+    <sortCondition ref="A2:A11"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD61154-9267-4210-91BD-E265315A506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2DFF4E-1F4D-45EC-AF93-E434CFD277FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Partie ?</t>
   </si>
@@ -197,6 +197,30 @@
   </si>
   <si>
     <t>CIT08</t>
+  </si>
+  <si>
+    <t>1,3,1</t>
+  </si>
+  <si>
+    <t>CIT09</t>
+  </si>
+  <si>
+    <t>The Future of Manufacturing : Making Things in a Changing World</t>
+  </si>
+  <si>
+    <t>McKinsey &amp; Company</t>
+  </si>
+  <si>
+    <t>https://www.larousse.fr/dictionnaires/francais/main-d_%C5%93uvre/48694</t>
+  </si>
+  <si>
+    <t>Définition de main d'œuvre</t>
+  </si>
+  <si>
+    <t>CIT10</t>
+  </si>
+  <si>
+    <t>1,3,2</t>
   </si>
 </sst>
 </file>
@@ -566,11 +590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,6 +799,37 @@
         <v>51</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
     <sortCondition ref="A2:A11"/>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2DFF4E-1F4D-45EC-AF93-E434CFD277FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645694D1-7772-44A8-9E9F-94707717885B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>Partie ?</t>
   </si>
@@ -221,6 +221,63 @@
   </si>
   <si>
     <t>1,3,2</t>
+  </si>
+  <si>
+    <t>1,3,3</t>
+  </si>
+  <si>
+    <t>FIG04</t>
+  </si>
+  <si>
+    <t>auto-forever.com - source OICA</t>
+  </si>
+  <si>
+    <t>Production annuelle d’automobiles</t>
+  </si>
+  <si>
+    <t>https://www.auto-forever.com/wp-content/uploads/2015/07/Stat_1900_1.png</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/docserver/2e2f4eea-en.pdf?expires=1678646255&amp;id=id&amp;accname=guest&amp;checksum=5C1F236C8F3FB21980C44D4038533781</t>
+  </si>
+  <si>
+    <t>1,3,4</t>
+  </si>
+  <si>
+    <t>CIT11</t>
+  </si>
+  <si>
+    <t>AUTOMATION, SKILLS USE AND TRAINING</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>CIT12</t>
+  </si>
+  <si>
+    <t>1,3,5</t>
+  </si>
+  <si>
+    <t>iDU</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>https://www.iedu.fr/le-salaire-dun-etudiant-au-mcdo-comment-savoir-si-cest-suffisant-pour-couvrir-vos-depenses/</t>
+  </si>
+  <si>
+    <t>FIG5</t>
+  </si>
+  <si>
+    <t>Répartition des salariés des filiales de McDonald's en France en 2017, par âge</t>
+  </si>
+  <si>
+    <t>https://fr.statista.com/statistiques/508793/salaries-mc-donalds-age-france/</t>
+  </si>
+  <si>
+    <t>1,3,6</t>
   </si>
 </sst>
 </file>
@@ -292,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +364,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,20 +651,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="140" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -804,13 +865,16 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,21 +882,86 @@
         <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
-    <sortCondition ref="A2:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
+    <sortCondition ref="A1:A18"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645694D1-7772-44A8-9E9F-94707717885B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17352F9E-BCAB-4237-AF4E-21D78889F0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17352F9E-BCAB-4237-AF4E-21D78889F0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590574A1-C7C8-4764-8B72-AF66FEEEE096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31170" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
   <si>
     <t>Partie ?</t>
   </si>
@@ -278,6 +278,33 @@
   </si>
   <si>
     <t>1,3,6</t>
+  </si>
+  <si>
+    <t>CIT13</t>
+  </si>
+  <si>
+    <t>2,1,1</t>
+  </si>
+  <si>
+    <t>Définition d'ordinateur</t>
+  </si>
+  <si>
+    <t>https://www.larousse.fr/dictionnaires/francais/ordinateur/56358</t>
+  </si>
+  <si>
+    <t>2,1,2</t>
+  </si>
+  <si>
+    <t>FIG6</t>
+  </si>
+  <si>
+    <t>De quoi est composé un ordinateur</t>
+  </si>
+  <si>
+    <t>Playhooky</t>
+  </si>
+  <si>
+    <t>https://www.playhooky.fr/focus/ordinateur/</t>
   </si>
 </sst>
 </file>
@@ -349,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,9 +394,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -651,11 +675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +973,7 @@
       <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -957,6 +981,40 @@
       </c>
       <c r="E18" s="2" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590574A1-C7C8-4764-8B72-AF66FEEEE096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68127E0-C26E-4A58-B06A-4AD6EA0D3F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31170" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Partie ?</t>
   </si>
@@ -305,6 +305,33 @@
   </si>
   <si>
     <t>https://www.playhooky.fr/focus/ordinateur/</t>
+  </si>
+  <si>
+    <t>2,1,3</t>
+  </si>
+  <si>
+    <t>CIT14</t>
+  </si>
+  <si>
+    <t>Ada's Algorithm: How Lord Byron's Daughter Ada Lovelace Launched the Digital Age </t>
+  </si>
+  <si>
+    <t>James Essinger</t>
+  </si>
+  <si>
+    <t>FIG7</t>
+  </si>
+  <si>
+    <t>2,1,4</t>
+  </si>
+  <si>
+    <t>https://fr.slideshare.net/MehdiAlbahja/cours-fortranpptx</t>
+  </si>
+  <si>
+    <t>cours fortran.pptx, page 16</t>
+  </si>
+  <si>
+    <t>Mehdi Albahja</t>
   </si>
 </sst>
 </file>
@@ -675,18 +702,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="140" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
@@ -1015,6 +1042,37 @@
       </c>
       <c r="E20" s="2" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68127E0-C26E-4A58-B06A-4AD6EA0D3F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE065E2-AEF8-4F97-9878-99C1B0F3348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32685" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
   <si>
     <t>Partie ?</t>
   </si>
@@ -332,6 +332,30 @@
   </si>
   <si>
     <t>Mehdi Albahja</t>
+  </si>
+  <si>
+    <t>2,3,1</t>
+  </si>
+  <si>
+    <t>CIT15</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/fr-fr/topics/automation</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Définition de l'automatisation</t>
+  </si>
+  <si>
+    <t>4,1,1</t>
+  </si>
+  <si>
+    <t>FIG</t>
+  </si>
+  <si>
+    <t>Les métier les plus menacés par l'automatisation</t>
   </si>
 </sst>
 </file>
@@ -702,11 +726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,6 +1099,37 @@
         <v>98</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
     <sortCondition ref="A1:A18"/>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE065E2-AEF8-4F97-9878-99C1B0F3348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9053C89-7183-44F8-AA97-388F9D3FF725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32685" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
   <si>
     <t>Partie ?</t>
   </si>
@@ -356,6 +356,30 @@
   </si>
   <si>
     <t>Les métier les plus menacés par l'automatisation</t>
+  </si>
+  <si>
+    <t>3,1,2</t>
+  </si>
+  <si>
+    <t>https://cf-assets.www.cloudflare.com/slt3lc6tev37/2VQ6NpacA6xXz9B8iAE7re/e06c5e47d5138d05b27c208a59373a30/autonomous-system-diagram.svg</t>
+  </si>
+  <si>
+    <t>Cloudflare</t>
+  </si>
+  <si>
+    <t>Représentation des AS dans le monde</t>
+  </si>
+  <si>
+    <t>3,1,3</t>
+  </si>
+  <si>
+    <t>Du poste informatique au Serveur</t>
+  </si>
+  <si>
+    <t>https://pedagogie.ac-toulouse.fr/sii/sites/sii.disciplines.ac-toulouse.fr/files/techno_college/cycle4/fc-cycle4/ip/ip11-1_architecture-reseau-internet.pdf</t>
+  </si>
+  <si>
+    <t>Académie de Toulouse</t>
   </si>
 </sst>
 </file>
@@ -726,11 +750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +763,7 @@
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="140" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="145.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1118,29 +1142,64 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
-    <sortCondition ref="A1:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E26">
+    <sortCondition ref="A1:A26"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="definition" xr:uid="{53FE3B05-AD56-43B0-AFD3-3B30FFF4103B}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00D33B7A-1C7C-42B6-A230-EEDF19A87528}"/>
     <hyperlink ref="E7" r:id="rId3" xr:uid="{EBCE9B6B-340F-4C64-964B-563D0EF89E25}"/>
+    <hyperlink ref="E24" r:id="rId4" xr:uid="{890B158D-5E21-4ADC-882C-DA4367AEDEA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9053C89-7183-44F8-AA97-388F9D3FF725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4368BFBA-A56A-48AD-B59D-99A6D1E096DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
   <si>
     <t>Partie ?</t>
   </si>
@@ -380,6 +380,51 @@
   </si>
   <si>
     <t>Académie de Toulouse</t>
+  </si>
+  <si>
+    <t>3,1,4</t>
+  </si>
+  <si>
+    <t>CIT16</t>
+  </si>
+  <si>
+    <t>https://www.kaspersky.fr/resource-center/definitions/what-is-a-vpn</t>
+  </si>
+  <si>
+    <t>Définition de VPN</t>
+  </si>
+  <si>
+    <t>Kapersky</t>
+  </si>
+  <si>
+    <t>3,1,5</t>
+  </si>
+  <si>
+    <t>Localisation de mon IP publique</t>
+  </si>
+  <si>
+    <t>https://www.hostip.fr/</t>
+  </si>
+  <si>
+    <t>hostip</t>
+  </si>
+  <si>
+    <t>3,1,6</t>
+  </si>
+  <si>
+    <t>CIT</t>
+  </si>
+  <si>
+    <t>!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.legifrance.gouv.fr/codes/id/LEGISCTA000025558058/</t>
+  </si>
+  <si>
+    <t>Article L1222-9</t>
+  </si>
+  <si>
+    <t>Code du travail</t>
   </si>
 </sst>
 </file>
@@ -750,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,6 +1232,60 @@
       <c r="D26" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E26" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E26">

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4368BFBA-A56A-48AD-B59D-99A6D1E096DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6016F5CB-908C-4308-92AE-B41D838E6CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
   <si>
     <t>Partie ?</t>
   </si>
@@ -425,6 +425,30 @@
   </si>
   <si>
     <t>Code du travail</t>
+  </si>
+  <si>
+    <t>3,2,1</t>
+  </si>
+  <si>
+    <t>https://bbf.enssib.fr/consulter/bbf-1981-07-0391-001</t>
+  </si>
+  <si>
+    <t>Définition base / banque de données</t>
+  </si>
+  <si>
+    <t>Anny Maximin</t>
+  </si>
+  <si>
+    <t>https://thumbs.dreamstime.com/z/police-de-code-morse-68797790.jpg</t>
+  </si>
+  <si>
+    <t>Alhovik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le code Morse, alphabet marque avec des lettres l'illustration </t>
+  </si>
+  <si>
+    <t>3,2,2</t>
   </si>
 </sst>
 </file>
@@ -795,11 +819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +831,7 @@
     <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="145.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1285,6 +1309,40 @@
       </c>
       <c r="E29" s="2" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6016F5CB-908C-4308-92AE-B41D838E6CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0872E510-7B91-42C2-8C50-460691C55B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,7 +823,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1205,7 @@
       <c r="D23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1355,8 +1355,9 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00D33B7A-1C7C-42B6-A230-EEDF19A87528}"/>
     <hyperlink ref="E7" r:id="rId3" xr:uid="{EBCE9B6B-340F-4C64-964B-563D0EF89E25}"/>
     <hyperlink ref="E24" r:id="rId4" xr:uid="{890B158D-5E21-4ADC-882C-DA4367AEDEA0}"/>
+    <hyperlink ref="E23" r:id="rId5" xr:uid="{DDD0730F-D557-4E25-A0C0-CF11371FE9AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0872E510-7B91-42C2-8C50-460691C55B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9EB5AF-B81A-43FD-9D6F-81CBC5D92897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
   <si>
     <t>Partie ?</t>
   </si>
@@ -449,6 +449,24 @@
   </si>
   <si>
     <t>3,2,2</t>
+  </si>
+  <si>
+    <t>http://yannickprie.net/archives/VEILLE-2009-2012/2012/cloudsec/partie1/fig1.png</t>
+  </si>
+  <si>
+    <t>Les différentes couches d’un serveur virtualisé</t>
+  </si>
+  <si>
+    <t>https://fr.statista.com/infographie/17825/parts-de-marche-cloud-infrastructure-par-fournisseur/</t>
+  </si>
+  <si>
+    <t>Part de marché mondiale des principaux fournisseurs de services cloud au 3ème trimestre 2022</t>
+  </si>
+  <si>
+    <t>3,3,1</t>
+  </si>
+  <si>
+    <t>3,3,2</t>
   </si>
 </sst>
 </file>
@@ -819,18 +837,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="145.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
@@ -1343,6 +1361,37 @@
       </c>
       <c r="E31" s="2" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9EB5AF-B81A-43FD-9D6F-81CBC5D92897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B7C27D-8FC0-48AD-B8DC-1908F7FA5459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="154">
   <si>
     <t>Partie ?</t>
   </si>
@@ -467,6 +467,30 @@
   </si>
   <si>
     <t>3,3,2</t>
+  </si>
+  <si>
+    <t>https://www.it-connect.fr/wp-content-itc/uploads/2013/06/typenetwork2.png</t>
+  </si>
+  <si>
+    <t>it-connect</t>
+  </si>
+  <si>
+    <t>3,3,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtualisation – Les types de connexion au réseau </t>
+  </si>
+  <si>
+    <t>https://primabord.eduscol.education.fr/qu-est-ce-qu-un-objet-connecte</t>
+  </si>
+  <si>
+    <t>Ministère de l'Éducation nationale et de la Jeunesse</t>
+  </si>
+  <si>
+    <t>Définition d'objet connecté</t>
+  </si>
+  <si>
+    <t>3,3,4</t>
   </si>
 </sst>
 </file>
@@ -837,11 +861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +873,7 @@
     <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="90.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="145.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1392,6 +1416,40 @@
       </c>
       <c r="E33" s="2" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B7C27D-8FC0-48AD-B8DC-1908F7FA5459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFA5FAD-23B4-4379-927F-3559CB338C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -865,7 +865,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFA5FAD-23B4-4379-927F-3559CB338C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0087C3FA-1914-4758-83F7-295D753146D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="167">
   <si>
     <t>Partie ?</t>
   </si>
@@ -491,6 +491,45 @@
   </si>
   <si>
     <t>3,3,4</t>
+  </si>
+  <si>
+    <t>3,3,5</t>
+  </si>
+  <si>
+    <t>3,3,6</t>
+  </si>
+  <si>
+    <t>https://www.connectwave.fr/wp-content/uploads/2018/07/fonctions_objet_connecte.jpg</t>
+  </si>
+  <si>
+    <t>https://iotjourney-api-prod.apps.fr01.paas.diod.orange.com/uploads/medias/F0EmkZGMePtP5rCeRrkX.png</t>
+  </si>
+  <si>
+    <t>connectwave</t>
+  </si>
+  <si>
+    <t>Les fonctions de l'objet connecté</t>
+  </si>
+  <si>
+    <t>les solutions réseau du marché</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Polytech Lyon</t>
+  </si>
+  <si>
+    <t>1,5,1</t>
+  </si>
+  <si>
+    <t>https://observers.france24.com/fr/moyen-orient/20221125-propagande-terrorisme-etat-islamique-r%C3%A9seaux-sociaux</t>
+  </si>
+  <si>
+    <t>Les observateur, France 24</t>
+  </si>
+  <si>
+    <t>Sur les réseaux sociaux, la propagande terroriste s'amplifie en se jouant de la censure</t>
   </si>
 </sst>
 </file>
@@ -861,11 +900,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1436,10 @@
       <c r="C32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1450,6 +1492,57 @@
       </c>
       <c r="E35" s="2" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1463,8 +1556,10 @@
     <hyperlink ref="E7" r:id="rId3" xr:uid="{EBCE9B6B-340F-4C64-964B-563D0EF89E25}"/>
     <hyperlink ref="E24" r:id="rId4" xr:uid="{890B158D-5E21-4ADC-882C-DA4367AEDEA0}"/>
     <hyperlink ref="E23" r:id="rId5" xr:uid="{DDD0730F-D557-4E25-A0C0-CF11371FE9AE}"/>
+    <hyperlink ref="E37" r:id="rId6" xr:uid="{089A9BF8-9681-42D1-8FD9-118A1960AEF9}"/>
+    <hyperlink ref="E32" r:id="rId7" xr:uid="{A7D8A8BF-DF29-494D-A0A8-AF2DCD6B40BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0087C3FA-1914-4758-83F7-295D753146D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66DB6F3-C7DE-43D5-A5DE-CF70BA050224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="182">
   <si>
     <t>Partie ?</t>
   </si>
@@ -530,13 +530,58 @@
   </si>
   <si>
     <t>Sur les réseaux sociaux, la propagande terroriste s'amplifie en se jouant de la censure</t>
+  </si>
+  <si>
+    <t>https://fr.wiktionary.org/wiki/d%C3%A9sautomatiser</t>
+  </si>
+  <si>
+    <t>Définition de désautomatiser</t>
+  </si>
+  <si>
+    <t>wiktionary</t>
+  </si>
+  <si>
+    <t>4,4,1</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Ales-Vysocky/publication/303853919_Human_-_Robot_collaboration_in_industry/links/5a3ceba2458515f6b0343fa2/Human-Robot-collaboration-in-industry.pdf</t>
+  </si>
+  <si>
+    <t>Human - Robot collaboration in industry</t>
+  </si>
+  <si>
+    <t>https://www.persee.fr/doc/intel_0769-4113_2015_num_63_1_1028</t>
+  </si>
+  <si>
+    <t>Stiegler Bernard</t>
+  </si>
+  <si>
+    <t>SRC</t>
+  </si>
+  <si>
+    <t>Demain, le temps des automates et le temps de la désautomatisation</t>
+  </si>
+  <si>
+    <t>4,4,0</t>
+  </si>
+  <si>
+    <t>Aes Vysocky et Petr Novak</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Juin 2016</t>
+  </si>
+  <si>
+    <t>2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +608,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -601,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,7 +669,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -900,11 +963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,11 +976,12 @@
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="90.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="145.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="186.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -930,11 +994,14 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -947,11 +1014,11 @@
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -964,11 +1031,11 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -982,7 +1049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -996,7 +1063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1010,7 +1077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1023,11 +1090,12 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1040,11 +1108,11 @@
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -1057,11 +1125,11 @@
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -1074,11 +1142,11 @@
       <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -1092,7 +1160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
@@ -1105,11 +1173,11 @@
       <c r="D12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -1122,11 +1190,11 @@
       <c r="D13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -1140,7 +1208,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
@@ -1153,11 +1221,11 @@
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>70</v>
       </c>
@@ -1170,28 +1238,28 @@
       <c r="D16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>82</v>
       </c>
@@ -1204,144 +1272,144 @@
       <c r="D18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>117</v>
       </c>
@@ -1354,11 +1422,11 @@
       <c r="D27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>122</v>
       </c>
@@ -1371,11 +1439,11 @@
       <c r="D28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>126</v>
       </c>
@@ -1388,11 +1456,11 @@
       <c r="D29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>132</v>
       </c>
@@ -1405,11 +1473,11 @@
       <c r="D30" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>139</v>
       </c>
@@ -1422,11 +1490,11 @@
       <c r="D31" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>144</v>
       </c>
@@ -1439,11 +1507,11 @@
       <c r="D32" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>145</v>
       </c>
@@ -1456,11 +1524,11 @@
       <c r="D33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>148</v>
       </c>
@@ -1473,11 +1541,11 @@
       <c r="D34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>153</v>
       </c>
@@ -1490,11 +1558,11 @@
       <c r="D35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>154</v>
       </c>
@@ -1507,11 +1575,11 @@
       <c r="D36" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>155</v>
       </c>
@@ -1524,40 +1592,91 @@
       <c r="D37" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>164</v>
+      <c r="C39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E26">
-    <sortCondition ref="A1:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
+    <sortCondition ref="A1:A39"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="definition" xr:uid="{53FE3B05-AD56-43B0-AFD3-3B30FFF4103B}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00D33B7A-1C7C-42B6-A230-EEDF19A87528}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{EBCE9B6B-340F-4C64-964B-563D0EF89E25}"/>
-    <hyperlink ref="E24" r:id="rId4" xr:uid="{890B158D-5E21-4ADC-882C-DA4367AEDEA0}"/>
-    <hyperlink ref="E23" r:id="rId5" xr:uid="{DDD0730F-D557-4E25-A0C0-CF11371FE9AE}"/>
-    <hyperlink ref="E37" r:id="rId6" xr:uid="{089A9BF8-9681-42D1-8FD9-118A1960AEF9}"/>
-    <hyperlink ref="E32" r:id="rId7" xr:uid="{A7D8A8BF-DF29-494D-A0A8-AF2DCD6B40BD}"/>
+    <hyperlink ref="F2" r:id="rId1" location="definition" xr:uid="{53FE3B05-AD56-43B0-AFD3-3B30FFF4103B}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00D33B7A-1C7C-42B6-A230-EEDF19A87528}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{EBCE9B6B-340F-4C64-964B-563D0EF89E25}"/>
+    <hyperlink ref="F25" r:id="rId4" xr:uid="{890B158D-5E21-4ADC-882C-DA4367AEDEA0}"/>
+    <hyperlink ref="F24" r:id="rId5" xr:uid="{DDD0730F-D557-4E25-A0C0-CF11371FE9AE}"/>
+    <hyperlink ref="F37" r:id="rId6" xr:uid="{089A9BF8-9681-42D1-8FD9-118A1960AEF9}"/>
+    <hyperlink ref="F32" r:id="rId7" xr:uid="{A7D8A8BF-DF29-494D-A0A8-AF2DCD6B40BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66DB6F3-C7DE-43D5-A5DE-CF70BA050224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9002DCB7-8D15-4B8C-90A3-83D16E2B915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="423">
   <si>
     <t>Partie ?</t>
   </si>
@@ -151,9 +151,6 @@
     <t>CIT05</t>
   </si>
   <si>
-    <t>This is what we die for</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amnesty International </t>
   </si>
   <si>
@@ -247,21 +244,12 @@
     <t>CIT11</t>
   </si>
   <si>
-    <t>AUTOMATION, SKILLS USE AND TRAINING</t>
-  </si>
-  <si>
-    <t>OECD</t>
-  </si>
-  <si>
     <t>CIT12</t>
   </si>
   <si>
     <t>1,3,5</t>
   </si>
   <si>
-    <t>iDU</t>
-  </si>
-  <si>
     <t>Sandra</t>
   </si>
   <si>
@@ -301,9 +289,6 @@
     <t>De quoi est composé un ordinateur</t>
   </si>
   <si>
-    <t>Playhooky</t>
-  </si>
-  <si>
     <t>https://www.playhooky.fr/focus/ordinateur/</t>
   </si>
   <si>
@@ -433,9 +418,6 @@
     <t>https://bbf.enssib.fr/consulter/bbf-1981-07-0391-001</t>
   </si>
   <si>
-    <t>Définition base / banque de données</t>
-  </si>
-  <si>
     <t>Anny Maximin</t>
   </si>
   <si>
@@ -575,13 +557,761 @@
   </si>
   <si>
     <t>2015</t>
+  </si>
+  <si>
+    <t>Signet</t>
+  </si>
+  <si>
+    <t>https://cnie.dz/difference-entre-informatique-et-technologie-de-linformation-it/</t>
+  </si>
+  <si>
+    <t>1,1,0</t>
+  </si>
+  <si>
+    <t>1,2,0</t>
+  </si>
+  <si>
+    <t>https://www.cairn.info/revue-reflets-et-perspectives-de-la-vie-economique-2012-4-page-77.htm</t>
+  </si>
+  <si>
+    <t>https://ellcie-healthy.com/limpact-de-la-technologie-sur-lenvironnement/</t>
+  </si>
+  <si>
+    <t>https://www.projetecolo.com/impact-des-technologies-sur-l-environnement-201.html</t>
+  </si>
+  <si>
+    <t>https://www.lemondedelenergie.com/innovation-transition-ecologique/2021/09/14/</t>
+  </si>
+  <si>
+    <t>https://selectra.info/telecom/actualites/acteurs/empreinte-carbone-numerique-nouvelles-technologies-moins-consommatrices</t>
+  </si>
+  <si>
+    <t>https://www.ericsson.com/fr/blog/3/2021/5/comment-reduire-lempreinte-carbone-grace-aux-nouvelles-technologies</t>
+  </si>
+  <si>
+    <t>https://datacenter-magazine.fr/datacenters-defis-techniques-et-enjeux-environnementaux-dun-marche-en-plein-boom/</t>
+  </si>
+  <si>
+    <t>1,4,0</t>
+  </si>
+  <si>
+    <t>https://www.vie-publique.fr/parole-dexpert/38509-nouvelles-technologies-sante</t>
+  </si>
+  <si>
+    <t>https://medipense.com/fr/comment-lautomatisation-aide-les-soins-de-sante/</t>
+  </si>
+  <si>
+    <t>https://santors.fr/les-soins/des-medicaments-imprimes-3-d</t>
+  </si>
+  <si>
+    <t>https://hitwest.ouest-france.fr/news/le-bras-bionique-a-nantes-comment-ca-marche-38697</t>
+  </si>
+  <si>
+    <t>https://www.medecinesciences.org/en/articles/medsci/full_html/2012/11/medsci20122811p932/medsci20122811p932.html</t>
+  </si>
+  <si>
+    <t>https://www.20minutes.fr/sante/4009091-20221111-sonde-connectee-aider-reeducation-perineale</t>
+  </si>
+  <si>
+    <t>1,5,0</t>
+  </si>
+  <si>
+    <t>https://www.cairn.info/revue-inflexions-2007-1-page-177.htm</t>
+  </si>
+  <si>
+    <t>https://www.senat.fr/questions/base/2015/qSEQ150114500.html</t>
+  </si>
+  <si>
+    <t>2,2,0</t>
+  </si>
+  <si>
+    <t>https://doc.lagout.org/programmation/scripts/batch/Batch.pdf</t>
+  </si>
+  <si>
+    <t>2,3,0</t>
+  </si>
+  <si>
+    <t>https://www.editions-eni.fr/open/mediabook.aspx?idR=0afd65fc585c9fabe014ff87b3e360ea</t>
+  </si>
+  <si>
+    <t>https://www.vmware.com/fr/topics/glossary/content/it-automation.html</t>
+  </si>
+  <si>
+    <t>https://www.ansible.com/integrations/infrastructure/netapp</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/pulse/ia-d%C3%A9cisionnelle-comment-lia-r%C3%A9volutionne-la-prise-de-rupert-schiessl/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>https://atos.net/wp-content/uploads/2019/06/atos-what-will-come-next-in-automation-white-paper.pdf</t>
+  </si>
+  <si>
+    <t>https://books.google.fr/books?hl=fr&amp;lr=&amp;id=rNHtDwAAQBAJ&amp;oi=fnd&amp;pg=PA400&amp;dq=watson+d%27IBM&amp;ots=Pyn3Ovv5Od&amp;sig=Bi6go0X3eMpou3RqsfMI9-fy2ek#v=onepage&amp;q=watson%20d'IBM&amp;f=false</t>
+  </si>
+  <si>
+    <t>https://www.concur.fr/blog/article/negliger-lautomatisation-et-lia-une-erreur-strategique-en-2021</t>
+  </si>
+  <si>
+    <t>2,4,0</t>
+  </si>
+  <si>
+    <t>3,1,0</t>
+  </si>
+  <si>
+    <t>https://www.techno-science.net/definition/10886.html</t>
+  </si>
+  <si>
+    <t>https://www.techno-science.net/definition/4008.html</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Internet</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Autonomous_System</t>
+  </si>
+  <si>
+    <t>https://www.cloudflare.com/fr-fr/learning/network-layer/what-is-an-autonomous-system/</t>
+  </si>
+  <si>
+    <t>https://www.internetsociety.org/fr/policybriefs/openstandards/</t>
+  </si>
+  <si>
+    <t>https://www.cloudflare.com/fr-fr/learning/dns/what-is-dns/</t>
+  </si>
+  <si>
+    <t>https://www.service-public.fr/particuliers/vosdroits/F13851</t>
+  </si>
+  <si>
+    <t>https://veille-travail.anact.fr/produits-documentaires/le-teletravail-ameliore-t-il-la-qualite-de-vie-au-travail</t>
+  </si>
+  <si>
+    <t>http://yves.lasfargue.pagesperso-orange.fr/Telecharge%202018/2018-05-17%20OBERGO%20-%20Rapport%20enquete%20Teletravail%202018.pdf</t>
+  </si>
+  <si>
+    <t>3,2,0</t>
+  </si>
+  <si>
+    <t>https://talentsdunumerique.com/le-numerique</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Code_Morse_international</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Mod%C3%A8le_relationnel</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Base_de_donn%C3%A9es#</t>
+  </si>
+  <si>
+    <t>https://www.la-croix.com/Economie/Economie-et-entreprises/Facebook-Google-geants-vente-donnees-personnelles-2019-12-29-1201068909</t>
+  </si>
+  <si>
+    <t>https://dictionnaire.lerobert.com/definition/smartphone</t>
+  </si>
+  <si>
+    <t>3,3,0</t>
+  </si>
+  <si>
+    <t>https://www.zdnet.com/article/what-is-cloud-computing-everything-you-need-to-know-about-the-cloud/</t>
+  </si>
+  <si>
+    <t>https://www.zdnet.fr/actualites/zd-tech-le-cloud-francais-ecrase-par-trois-geants-americains-39942686.htm</t>
+  </si>
+  <si>
+    <t>https://www.vmware.com/fr/products/esxi-and-esx.html</t>
+  </si>
+  <si>
+    <t>https://www.vmware.com/fr/topics/glossary/content/hypervisor.html</t>
+  </si>
+  <si>
+    <t>https://www.ummto.dz/dspace/bitstream/handle/ummto/12483/HamdaniNadir.pdf?sequence=1&amp;isAllowed=y</t>
+  </si>
+  <si>
+    <t>http://yannickprie.net/archives/VEILLE-2009-2012/2012/cloudsec/livreblanc_securite_virtualisation.pdf</t>
+  </si>
+  <si>
+    <t>https://www.it-connect.fr/virtualisation-les-types-de-connexion-au-reseau/</t>
+  </si>
+  <si>
+    <t>3,4,0</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?client=firefox-b-d&amp;q=avantage+des+objets+connect%C3%A9</t>
+  </si>
+  <si>
+    <t>https://www.economie.gouv.fr/dgccrf/Publications/Vie-pratique/Fiches-pratiques/objets-connectes</t>
+  </si>
+  <si>
+    <t>https://www.notre-planete.info/publi/2263-objets-connectes-avantages</t>
+  </si>
+  <si>
+    <t>https://iotjourney.orange.com/fr-FR/explorer/les-solutions-iot/objet-connecte</t>
+  </si>
+  <si>
+    <t>https://www.connectwave.fr/techno-appli-iot/iot/reseaux-et-infrastructures-iot/</t>
+  </si>
+  <si>
+    <t>https://iotjourney.orange.com/fr-FR/connectivite</t>
+  </si>
+  <si>
+    <t>https://www.connectwave.fr/techno-appli-iot/iot/les-reseaux-iot/</t>
+  </si>
+  <si>
+    <t>https://www.smart-traffik.io/liot-dans-le-retail-moteur-dune-nouvelle-experience-client/</t>
+  </si>
+  <si>
+    <t>https://www.silamp.fr/objet-connecte-definition</t>
+  </si>
+  <si>
+    <t>https://www.netcollectivites.fr/radar-pedagogique-fixe/789-radar-pedagogique-preventif-speed.html</t>
+  </si>
+  <si>
+    <t>https://www.perlesystems.fr/supportfiles/poe_background_technical_note.shtml</t>
+  </si>
+  <si>
+    <t>https://cnt-so.org/staa/2022/11/11/non-a-lautomatisation-des-metiers-de-lart/</t>
+  </si>
+  <si>
+    <t>https://trustmyscience.com/automatisation-les-metiers-du-futur-seront-ils-majoritairement-technologiques/</t>
+  </si>
+  <si>
+    <t>https://www.erudit.org/fr/revues/ri/2016-v71-n2-ri02537/1036612ar/</t>
+  </si>
+  <si>
+    <t>https://www.cairn.info/revue-francaise-d-ethique-appliquee-2018-1-page-16.htm</t>
+  </si>
+  <si>
+    <t>https://www.lesechos.fr/tech-medias/intelligence-artificielle/les-cinq-metiers-les-plus-menaces-par-lintelligence-artificielle-137080</t>
+  </si>
+  <si>
+    <t>https://www.hays.fr/it/blog/-/blogs/l-automatisation-ethique-est-elle-realiste</t>
+  </si>
+  <si>
+    <t>https://www.nae.edu/200473/Socially-Responsible-Automation-A-Framework-for-Shaping-the-Future</t>
+  </si>
+  <si>
+    <t>https://www.cnil.fr/fr</t>
+  </si>
+  <si>
+    <t>https://www.bocasay.com/fr/valent-donnees-personnelles-comment-utilisees/</t>
+  </si>
+  <si>
+    <t>https://www.lemondeinformatique.fr/actualites/lire-l-ia-futur-recruteur-pour-trouver-les-candidats-ideaux-89197.html</t>
+  </si>
+  <si>
+    <t>https://www.apec.fr/tendances-emploi-cadre/processus-de-recrutement-des-cadres/ia-et-recrutement--quels-impacts-sur-les-metiers-cadres-des-rh.html</t>
+  </si>
+  <si>
+    <t>https://martin-gibert.medium.com/quest-ce-que-l-%C3%A9thique-des-algorithmes-b681dac27334</t>
+  </si>
+  <si>
+    <t>4,1,0</t>
+  </si>
+  <si>
+    <t>https://www.drogues.gouv.fr/les-francais-addicts-leurs-ecrans</t>
+  </si>
+  <si>
+    <t>https://lepetitjournal.com/societe/intoxication-digitale-le-numerique-nous-aide-t-il-mieux-vivre-154278</t>
+  </si>
+  <si>
+    <t>https://fr.style.yahoo.com/6-astuces-passer-moins-temps-154000682.html?guccounter=1&amp;guce_referrer=aHR0cHM6Ly93d3cuZ29vZ2xlLmNvbS8&amp;guce_referrer_sig=AQAAAFP1Gu4S6nj-Vw-UrRkxAE5BG5ZuoJg9cBeJddlgZ0Ie1FouEBWoEaQw0XrKhCrPUMWnWX6_bLW2m83pVMGXnjFii9j254I4r_tGMFvVcbEQHrERC5XLvd41nqBARwgc5n0DK49pBxnVW7OJvwv38hVuhtKRcZQWGW2w4VeowDhF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://isupnat-naturopathie.fr/digital-detox-et-si-cetait-le-bon-moment/ </t>
+  </si>
+  <si>
+    <t>4,2,0</t>
+  </si>
+  <si>
+    <t>4,3,0</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/303853919_Human_-_Robot_collaboration_in_industry</t>
+  </si>
+  <si>
+    <t>https://www.persee.fr/docAsPDF/intel_0769-4113_2015_num_63_1_1028.pdf</t>
+  </si>
+  <si>
+    <t>Mahmoud Naffakh</t>
+  </si>
+  <si>
+    <t>https://www.sgdsn.gouv.fr/notre-organisation/composantes/agence-nationale-de-la-securite-des-systemes-dinformation</t>
+  </si>
+  <si>
+    <t>secrétaire général de la défense et de la sécurité nationale</t>
+  </si>
+  <si>
+    <t>17/11/2022</t>
+  </si>
+  <si>
+    <t>Agence nationale de la sécurité des systèmes d'information</t>
+  </si>
+  <si>
+    <t>Le règlement général sur la protection des données - RGPD</t>
+  </si>
+  <si>
+    <t>23/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.cnil.fr/fr/reglement-europeen-protection-donnees</t>
+  </si>
+  <si>
+    <t>CNIL</t>
+  </si>
+  <si>
+    <t>Introduction — Vivre bien dans un monde d’automatisation </t>
+  </si>
+  <si>
+    <t>Brugeron, Pierre-Emmanuel, et Sébastien Claeys</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>29/12/2019</t>
+  </si>
+  <si>
+    <t>Alain Guillemoles</t>
+  </si>
+  <si>
+    <t>Facebook et Google, géants de la vente de données personnelles</t>
+  </si>
+  <si>
+    <t>« Voilà pourquoi on meurt » Les atteintes aux droits humains en République Démocratique du Congo alimentent le commerce mondial du cobalt</t>
+  </si>
+  <si>
+    <t>19/01/2016</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>20/11/1989</t>
+  </si>
+  <si>
+    <t>05/04/2012</t>
+  </si>
+  <si>
+    <t>Nedelkoska, L. et G. Quintini</t>
+  </si>
+  <si>
+    <t>« Automation, skills use and training », Documents de travail de l'OCDE sur les questions sociales, l'emploi et les migrations, n° 202, Éditions OCDE, Paris, https://doi.org/10.1787/2e2f4eea-en.</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>15/03/2023</t>
+  </si>
+  <si>
+    <t>Le salaire d’un étudiant au McDo : comment savoir si c’est suffisant pour couvrir vos dépenses ?</t>
+  </si>
+  <si>
+    <t>25/11/2022</t>
+  </si>
+  <si>
+    <t>31/03/2019</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>17/12/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> « Bases et banques de données juridiques et économiques françaises », Bulletin des bibliothèques de France (BBF), 1981, n° 7, p. 391-405.
+En ligne : https://bbf.enssib.fr/consulter/bbf-1981-07-0391-001 ISSN 1292-8399.</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>20/09/2021</t>
+  </si>
+  <si>
+    <t>Claire Jenik</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>Différence entre informatique et technologie de l’information (IT)</t>
+  </si>
+  <si>
+    <t>Lynda Robei</t>
+  </si>
+  <si>
+    <t>Sophie Liénart, Annick Castiaux</t>
+  </si>
+  <si>
+    <t>Innovation et respect environnemental sont-ils compatibles ? Le cas du secteur des TIC. Reflets et perspectives de la vie économique, LI, 77-96. https://doi.org/10.3917/rpve.514.0077</t>
+  </si>
+  <si>
+    <t>22/09/2020</t>
+  </si>
+  <si>
+    <t>L’impact de la technologie sur l’environnement</t>
+  </si>
+  <si>
+    <t>ELLCIE HEALTHY</t>
+  </si>
+  <si>
+    <t>Équipe éditoriale</t>
+  </si>
+  <si>
+    <t>Impact des technologies sur l'environnement</t>
+  </si>
+  <si>
+    <t>14/06/2021</t>
+  </si>
+  <si>
+    <t>14/09/2021</t>
+  </si>
+  <si>
+    <t>L’innovation est-elle un frein à la transition écologique ?</t>
+  </si>
+  <si>
+    <t>Kako Naït Ali</t>
+  </si>
+  <si>
+    <t>Empreinte carbone numérique : des nouvelles technologies moins consommatrices ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julien Lepoix </t>
+  </si>
+  <si>
+    <t>23/02/2023</t>
+  </si>
+  <si>
+    <t>Comment réduire l’empreinte carbone grâce aux nouvelles technologies ?</t>
+  </si>
+  <si>
+    <t>27/05/2021</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>Corinne Muller</t>
+  </si>
+  <si>
+    <t>Datacenters : défis techniques et enjeux environnementaux d’un marché en plein boom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yves Grandmontagne </t>
+  </si>
+  <si>
+    <t>09/02/2021</t>
+  </si>
+  <si>
+    <t>Les nouvelles technologies au service de la santé</t>
+  </si>
+  <si>
+    <t>Marie-Céline Ray</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>Comment l’automatisation aide les soins de santé</t>
+  </si>
+  <si>
+    <t>Medipense</t>
+  </si>
+  <si>
+    <t>Des médicaments imprimés 3 D</t>
+  </si>
+  <si>
+    <t>santors</t>
+  </si>
+  <si>
+    <t>Le bras bionique à Nantes, comment ça marche ?</t>
+  </si>
+  <si>
+    <t>Alexandra BRUNOIS</t>
+  </si>
+  <si>
+    <t>13/10/2021</t>
+  </si>
+  <si>
+    <t>Systèmes d’interface neuronale
+Le futur c’est (presque) maintenant
+Med Sci (Paris) 2012 ; 28 : 932–934</t>
+  </si>
+  <si>
+    <t>12/11/2012</t>
+  </si>
+  <si>
+    <t>Nicolas Y. Masse,  Beata Jarosiewicz</t>
+  </si>
+  <si>
+    <t>11/11/2022</t>
+  </si>
+  <si>
+    <t>Gilles Varela</t>
+  </si>
+  <si>
+    <t>Une sonde connectée pour aider à la rééducation périnéale</t>
+  </si>
+  <si>
+    <t>Faugère, Jean-Marie</t>
+  </si>
+  <si>
+    <t>L’impact des nouvelles technologies sur la conception et la conduite des opérations. Inflexions, 5, 177-187. https://doi.org/10.3917/infle.005.0177</t>
+  </si>
+  <si>
+    <t>Apologie sur les réseaux sociaux d'actes terroristes et antisémites</t>
+  </si>
+  <si>
+    <t>M. François Grosdidier</t>
+  </si>
+  <si>
+    <t>15/01/2015</t>
+  </si>
+  <si>
+    <t>Formation à la programmation Batch</t>
+  </si>
+  <si>
+    <t>Adrien REBOISSON</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que l'automatisation ?</t>
+  </si>
+  <si>
+    <t>Sébastien DÉON</t>
+  </si>
+  <si>
+    <t>OpenStack
+Cloud Computing d'entreprise, Infrastructure as a Service (IaaS)
+Réf. ENI : EPOPS | ISBN : 9782746097414</t>
+  </si>
+  <si>
+    <t>Septembre 2015</t>
+  </si>
+  <si>
+    <t>Qu’est-ce que l’automatisation de l’informatique ?</t>
+  </si>
+  <si>
+    <t>VmWare</t>
+  </si>
+  <si>
+    <t>Automating NetApp with Ansible</t>
+  </si>
+  <si>
+    <t>Red Hat Ansible</t>
+  </si>
+  <si>
+    <t>Comment l'IA décisionnelle révolutionne la prise de décision en entreprise</t>
+  </si>
+  <si>
+    <t>Rupert Schiessl</t>
+  </si>
+  <si>
+    <t>04/05/2022</t>
+  </si>
+  <si>
+    <t>What will come next in automation</t>
+  </si>
+  <si>
+    <t>Matthias Noch, Klaus Halbig, Tony Hand</t>
+  </si>
+  <si>
+    <t>16/07/2020</t>
+  </si>
+  <si>
+    <t>Hasan Ayaz</t>
+  </si>
+  <si>
+    <t>Advances in Neuroergonomics and Cognitive Engineering</t>
+  </si>
+  <si>
+    <t>Négliger l’automatisation et l’IA, une erreur stratégique en 2021</t>
+  </si>
+  <si>
+    <t>Stéphane Gillet</t>
+  </si>
+  <si>
+    <t>04/03/2021</t>
+  </si>
+  <si>
+    <t>ARPANET - Définition</t>
+  </si>
+  <si>
+    <t>Bernard Stiegler</t>
+  </si>
+  <si>
+    <t>Human - Robot collaboration in industry
+    MM Science Journal 2016(02):903-906
+DOI:10.17973/MMSJ.2016_06_201611</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Ales Vysocky, Petr Novak</t>
+  </si>
+  <si>
+    <t>désautomatiser</t>
+  </si>
+  <si>
+    <t>03/09/2020</t>
+  </si>
+  <si>
+    <t>Digital detox : et si c’était le bon moment ?</t>
+  </si>
+  <si>
+    <t>06/01/2023</t>
+  </si>
+  <si>
+    <t>Carole Cesson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topsante </t>
+  </si>
+  <si>
+    <t>6 astuces pour passer moins de temps sur votre téléphone</t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>INTOXICATION DIGITALE – Le numérique nous aide-t-il à mieux vivre ?</t>
+  </si>
+  <si>
+    <t>Lepetitjournal.com International</t>
+  </si>
+  <si>
+    <t>25/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les Français « addicts » à leurs écrans ? </t>
+  </si>
+  <si>
+    <t>MILDECA</t>
+  </si>
+  <si>
+    <t>Qu’est-ce que l’éthique des algorithmes?</t>
+  </si>
+  <si>
+    <t>Martin Gibert</t>
+  </si>
+  <si>
+    <t>04/08/2020</t>
+  </si>
+  <si>
+    <t>IA et recrutement : quels impacts sur les métiers cadres des RH ?</t>
+  </si>
+  <si>
+    <t>16/02/2023</t>
+  </si>
+  <si>
+    <t>APEC</t>
+  </si>
+  <si>
+    <t>L'IA, futur recruteur pour trouver les candidats idéaux</t>
+  </si>
+  <si>
+    <t>Lucas Mearian</t>
+  </si>
+  <si>
+    <t>16/01/2023</t>
+  </si>
+  <si>
+    <t>Que valent vraiment vos données personnelles et comment sont-elles utilisées ?</t>
+  </si>
+  <si>
+    <t>Romain Juillet</t>
+  </si>
+  <si>
+    <t>13/05/2022</t>
+  </si>
+  <si>
+    <t>Winter Bridge on Frontiers of Engineering</t>
+  </si>
+  <si>
+    <t>14/12/2018</t>
+  </si>
+  <si>
+    <t>National Academy of Engineering</t>
+  </si>
+  <si>
+    <t>Protéger les données personnelles, accompagner l'innovation, préserver les libertés individuelles</t>
+  </si>
+  <si>
+    <t>L'AUTOMATISATION « ÉTHIQUE » EST-ELLE RÉALISTE ?</t>
+  </si>
+  <si>
+    <t>Olivier Pacaud</t>
+  </si>
+  <si>
+    <t>Les cinq métiers les plus menacés par l'intelligence artificielle</t>
+  </si>
+  <si>
+    <t>Remy Demichelis</t>
+  </si>
+  <si>
+    <t>21/08/2018</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Amadou Ba et David Alis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Insatisfaction des salariés et des clients en réaction à l’automatisation DOI : https://doi.org/10.7202/1036612ar</t>
+  </si>
+  <si>
+    <t>Automatisation : les métiers du futur seront-ils majoritairement technologiques ?</t>
+  </si>
+  <si>
+    <t>Laurie Henry</t>
+  </si>
+  <si>
+    <t>01/10/2022</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Autonomous System</t>
+  </si>
+  <si>
+    <t>wikipédia</t>
+  </si>
+  <si>
+    <t>Internet - Définition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: Wikipédia sous licence CC-BY-SA </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,12 +1328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -612,8 +1336,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -624,7 +1361,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -647,12 +1384,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,24 +1424,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -963,722 +1747,2383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="186.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="37" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="F122" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="G122" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row r="123" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C124" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="E124" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F124" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>173</v>
+      <c r="G124" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G39">
     <sortCondition ref="A1:A39"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" location="definition" xr:uid="{53FE3B05-AD56-43B0-AFD3-3B30FFF4103B}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00D33B7A-1C7C-42B6-A230-EEDF19A87528}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{EBCE9B6B-340F-4C64-964B-563D0EF89E25}"/>
-    <hyperlink ref="F25" r:id="rId4" xr:uid="{890B158D-5E21-4ADC-882C-DA4367AEDEA0}"/>
-    <hyperlink ref="F24" r:id="rId5" xr:uid="{DDD0730F-D557-4E25-A0C0-CF11371FE9AE}"/>
-    <hyperlink ref="F37" r:id="rId6" xr:uid="{089A9BF8-9681-42D1-8FD9-118A1960AEF9}"/>
-    <hyperlink ref="F32" r:id="rId7" xr:uid="{A7D8A8BF-DF29-494D-A0A8-AF2DCD6B40BD}"/>
+    <hyperlink ref="G2" r:id="rId1" location="definition" xr:uid="{53FE3B05-AD56-43B0-AFD3-3B30FFF4103B}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00D33B7A-1C7C-42B6-A230-EEDF19A87528}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{EBCE9B6B-340F-4C64-964B-563D0EF89E25}"/>
+    <hyperlink ref="G25" r:id="rId4" xr:uid="{890B158D-5E21-4ADC-882C-DA4367AEDEA0}"/>
+    <hyperlink ref="G24" r:id="rId5" xr:uid="{DDD0730F-D557-4E25-A0C0-CF11371FE9AE}"/>
+    <hyperlink ref="G37" r:id="rId6" xr:uid="{089A9BF8-9681-42D1-8FD9-118A1960AEF9}"/>
+    <hyperlink ref="G32" r:id="rId7" xr:uid="{A7D8A8BF-DF29-494D-A0A8-AF2DCD6B40BD}"/>
+    <hyperlink ref="G8" r:id="rId8" xr:uid="{59F010F0-95E1-48C4-B5AB-C4FC5590C6E7}"/>
+    <hyperlink ref="G9" r:id="rId9" xr:uid="{39175177-77D4-4015-806B-72E21FC6C7D3}"/>
+    <hyperlink ref="G10" r:id="rId10" location="19" xr:uid="{3A67EAAF-0637-4983-BA15-A4489ED6DF60}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{42FC376D-13E8-4383-9023-61E043339EE8}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{C8111356-36A3-4967-A3D1-D82E49757C85}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{D7042514-A462-4EDE-AE96-567CF3659E5E}"/>
+    <hyperlink ref="G16" r:id="rId14" xr:uid="{970CCD77-024A-48BC-A6AE-7338B0AE3A51}"/>
+    <hyperlink ref="G17" r:id="rId15" xr:uid="{E86B1202-4B08-469B-859D-03655FC83C8D}"/>
+    <hyperlink ref="G18" r:id="rId16" xr:uid="{D1C614EA-BCFA-48A1-A4DC-B996BEF8CA58}"/>
+    <hyperlink ref="G19" r:id="rId17" xr:uid="{E27794D7-CA73-4BDA-AB71-C137F994C72A}"/>
+    <hyperlink ref="G20" r:id="rId18" xr:uid="{B4D2CE99-0401-4FAD-A519-32602E8932BD}"/>
+    <hyperlink ref="G21" r:id="rId19" xr:uid="{3269518A-500E-4DD5-930F-6FB67804B67E}"/>
+    <hyperlink ref="G23" r:id="rId20" xr:uid="{E7B62B90-8CF8-4D1A-98FE-04FB7EF1C243}"/>
+    <hyperlink ref="G26" r:id="rId21" xr:uid="{EBC823FB-CAED-484B-A73B-7DB183F8E2A0}"/>
+    <hyperlink ref="G27" r:id="rId22" xr:uid="{06B5A571-AA24-4CDB-8D3F-691193585E94}"/>
+    <hyperlink ref="G28" r:id="rId23" xr:uid="{6F630FAA-89BD-415A-B3EC-C846B84234D0}"/>
+    <hyperlink ref="G29" r:id="rId24" xr:uid="{CB856D25-5213-49C0-B8F0-E834B0DDD444}"/>
+    <hyperlink ref="G30" r:id="rId25" xr:uid="{7ADBBDA7-9F4E-4F27-9B68-2BAA935E777D}"/>
+    <hyperlink ref="G31" r:id="rId26" xr:uid="{D2815E43-9EA9-427B-95CE-E759E0E9C816}"/>
+    <hyperlink ref="G33" r:id="rId27" xr:uid="{035EB779-8DE3-402B-886E-B2D3DA288904}"/>
+    <hyperlink ref="G35" r:id="rId28" xr:uid="{8255171C-558C-4CF9-B934-D8CF84205AB5}"/>
+    <hyperlink ref="G34" r:id="rId29" xr:uid="{9C3AA28E-D4AD-46EE-AFCD-11E4589224F3}"/>
+    <hyperlink ref="G36" r:id="rId30" xr:uid="{D5A3774F-5EB7-45F1-8758-BE6E6C8A78EE}"/>
+    <hyperlink ref="G39" r:id="rId31" xr:uid="{19F83A1F-3E80-47BC-A7C9-0B8706BC266D}"/>
+    <hyperlink ref="G40" r:id="rId32" xr:uid="{E5857682-DF6E-43E2-90D4-9E08D073E748}"/>
+    <hyperlink ref="G41" r:id="rId33" xr:uid="{D99B7C9F-3427-4B51-83EA-811544F0425D}"/>
+    <hyperlink ref="G42" r:id="rId34" xr:uid="{A5EEF38D-D7B2-44D1-908F-9EA61329AA79}"/>
+    <hyperlink ref="G43" r:id="rId35" xr:uid="{9BA7888C-4116-4DEC-BBF5-FAF77B17558F}"/>
+    <hyperlink ref="G44" r:id="rId36" xr:uid="{56AE1F90-1CE2-49E2-BAD0-ED0A961D30A6}"/>
+    <hyperlink ref="G45" r:id="rId37" xr:uid="{F5F0EE82-324C-4814-A5F7-B64693CB795B}"/>
+    <hyperlink ref="G46" r:id="rId38" xr:uid="{12F00E55-F35D-44B1-A891-6FF8AEB8D1E4}"/>
+    <hyperlink ref="G47" r:id="rId39" xr:uid="{BAE39C2A-89E8-41BC-883B-7DBB49762EBC}"/>
+    <hyperlink ref="G48" r:id="rId40" xr:uid="{8A96DCED-9AB2-4887-B501-B944E550249A}"/>
+    <hyperlink ref="G49" r:id="rId41" xr:uid="{D8EDF7F8-DF6C-44A7-84DC-861F29CA5246}"/>
+    <hyperlink ref="G50" r:id="rId42" xr:uid="{79AB7990-0C11-4D7C-B6A2-DE1C974F881E}"/>
+    <hyperlink ref="G51" r:id="rId43" xr:uid="{A0BCFA8F-F79C-4EB8-BFCB-C0A178B2BFDD}"/>
+    <hyperlink ref="G52" r:id="rId44" xr:uid="{5E467FDA-FF53-4929-A703-890E7681E375}"/>
+    <hyperlink ref="G53" r:id="rId45" xr:uid="{37D37875-8AE7-4F66-AB15-77D46A6E2C4D}"/>
+    <hyperlink ref="G54" r:id="rId46" xr:uid="{6FC4AAEB-37DE-4040-84E0-B663D8DE1A2A}"/>
+    <hyperlink ref="G55" r:id="rId47" xr:uid="{21A46774-2C31-45E7-BE4E-BF17EF0BA0C8}"/>
+    <hyperlink ref="G56" r:id="rId48" xr:uid="{9C19AB85-62B5-4113-BD75-F9F01F87730E}"/>
+    <hyperlink ref="G57" r:id="rId49" xr:uid="{977206D6-5560-4454-B771-7F9D1629165E}"/>
+    <hyperlink ref="G58" r:id="rId50" xr:uid="{900D3FC1-B98C-4A29-8B8A-0DC88934C4FD}"/>
+    <hyperlink ref="G59" r:id="rId51" xr:uid="{C703A766-7513-4C67-B590-10160039293C}"/>
+    <hyperlink ref="G60" r:id="rId52" xr:uid="{A72C8C8A-A9CA-48B7-B1B4-23BD4B352D69}"/>
+    <hyperlink ref="G61" r:id="rId53" xr:uid="{79AEDCBE-5D55-43FF-97BF-8651272AC90A}"/>
+    <hyperlink ref="G62" r:id="rId54" xr:uid="{D4B2CDE2-D1C6-4992-A433-1C894639702D}"/>
+    <hyperlink ref="G63" r:id="rId55" xr:uid="{0F77D7DF-D151-4EA3-ADC6-E8B2DC184AAD}"/>
+    <hyperlink ref="G64" r:id="rId56" xr:uid="{3A14232B-8906-4A19-8B0D-D903AFEF59EE}"/>
+    <hyperlink ref="G65" r:id="rId57" xr:uid="{C8EF7D6F-EF98-4264-A773-0C08627E1533}"/>
+    <hyperlink ref="G66" r:id="rId58" location="v=onepage&amp;q=watson%20d'IBM&amp;f=false" xr:uid="{73DB6B4D-D6AE-4293-85D1-F99A42A4E96F}"/>
+    <hyperlink ref="G126" r:id="rId59" xr:uid="{CDDADBD8-2C82-420C-BF2C-1AE97542D465}"/>
+    <hyperlink ref="G125" r:id="rId60" xr:uid="{10D47DD8-99B8-409C-9DCC-2B7BEE2D5470}"/>
+    <hyperlink ref="G124" r:id="rId61" xr:uid="{D79D539B-6F25-47F9-98CF-C428D171C597}"/>
+    <hyperlink ref="G123" r:id="rId62" xr:uid="{2107EFC9-A970-485A-B4A3-5B76E85019C4}"/>
+    <hyperlink ref="G122" r:id="rId63" xr:uid="{D5A3AE6C-1FE5-415D-9D12-323B45F0D7AB}"/>
+    <hyperlink ref="G121" r:id="rId64" xr:uid="{4F194A6E-CB9E-48EA-B7AB-EB56B71EE961}"/>
+    <hyperlink ref="G120" r:id="rId65" display="https://fr.style.yahoo.com/6-astuces-passer-moins-temps-154000682.html?guccounter=1&amp;guce_referrer=aHR0cHM6Ly93d3cuZ29vZ2xlLmNvbS8&amp;guce_referrer_sig=AQAAAFP1Gu4S6nj-Vw-UrRkxAE5BG5ZuoJg9cBeJddlgZ0Ie1FouEBWoEaQw0XrKhCrPUMWnWX6_bLW2m83pVMGXnjFii9j254I4r_tGMFvVcbEQHrERC5XLvd41nqBARwgc5n0DK49pBxnVW7OJvwv38hVuhtKRcZQWGW2w4VeowDhF" xr:uid="{73C7E9C3-5773-4653-8376-D9FFB1B55332}"/>
+    <hyperlink ref="G119" r:id="rId66" xr:uid="{550E9B2B-3048-4658-BFE4-03824FCD6BCB}"/>
+    <hyperlink ref="G118" r:id="rId67" xr:uid="{3600C3FC-3CFA-41D8-90AF-50436434CC09}"/>
+    <hyperlink ref="G117" r:id="rId68" xr:uid="{292D75D5-18B6-43F9-A596-290380AEA8BC}"/>
+    <hyperlink ref="G116" r:id="rId69" xr:uid="{35861E47-1CA7-43E9-A790-014E9739AF37}"/>
+    <hyperlink ref="G115" r:id="rId70" xr:uid="{950C7787-AC57-4CE4-AA37-F6A4F66BF30E}"/>
+    <hyperlink ref="G114" r:id="rId71" xr:uid="{9A7D4A9F-3866-4E99-BD7B-C3A257109E06}"/>
+    <hyperlink ref="G67" r:id="rId72" xr:uid="{7899AFCD-20D3-4460-8638-0298EBB59A0F}"/>
+    <hyperlink ref="G68" r:id="rId73" xr:uid="{6A76A62A-2354-49DE-A260-EC6E449E67B2}"/>
+    <hyperlink ref="G69" r:id="rId74" xr:uid="{1FCA5F93-CBEE-4F46-8791-B2183ACA2D4D}"/>
+    <hyperlink ref="G70" r:id="rId75" xr:uid="{2B116653-90F9-42FC-877E-6424F1ECEF3B}"/>
+    <hyperlink ref="G71" r:id="rId76" xr:uid="{2DCFFC24-0B46-44B4-AE72-A4765AF42BC0}"/>
+    <hyperlink ref="G72" r:id="rId77" xr:uid="{13627100-86C2-48B0-8D19-8C4B41806634}"/>
+    <hyperlink ref="G73" r:id="rId78" xr:uid="{EEBCF4B3-90DF-4D2F-80B6-E91D208B80C2}"/>
+    <hyperlink ref="G74" r:id="rId79" xr:uid="{2D07692A-9DA6-447E-89F0-D920E1E65B15}"/>
+    <hyperlink ref="G75" r:id="rId80" xr:uid="{D9080218-CEAF-46B3-8EB5-5C9A97E811F9}"/>
+    <hyperlink ref="G76" r:id="rId81" xr:uid="{36866ECB-576F-414D-AE5D-9B64A35FB9C3}"/>
+    <hyperlink ref="G77" r:id="rId82" xr:uid="{6A38D58A-0894-445E-803F-D3BF99C50AEB}"/>
+    <hyperlink ref="G78" r:id="rId83" xr:uid="{F98A3B0B-AC0C-4EE7-A5EE-FC1B603CFFA6}"/>
+    <hyperlink ref="G79" r:id="rId84" xr:uid="{5E73D9C3-05C2-4E11-A7B7-B92DC02125E3}"/>
+    <hyperlink ref="G80" r:id="rId85" xr:uid="{9003E79C-A9DB-4656-B804-A6214D18F764}"/>
+    <hyperlink ref="G81" r:id="rId86" xr:uid="{B7B9C06E-B406-481D-8C73-F057300F7A19}"/>
+    <hyperlink ref="G82" r:id="rId87" xr:uid="{EA82C4EF-F2ED-4614-A148-0719896B245C}"/>
+    <hyperlink ref="G83" r:id="rId88" xr:uid="{1B116784-4279-49F1-99BC-C8F379313F21}"/>
+    <hyperlink ref="G84" r:id="rId89" xr:uid="{70835059-2379-4D6F-9760-23FBFE7145B5}"/>
+    <hyperlink ref="G85" r:id="rId90" xr:uid="{0141F4AC-F42C-4F6F-9459-E1FC8874DE49}"/>
+    <hyperlink ref="G86" r:id="rId91" xr:uid="{72C93F7A-761A-4F39-A724-87E08A110E8C}"/>
+    <hyperlink ref="G87" r:id="rId92" xr:uid="{6BAC6CA3-2437-4AF9-B126-9E377E5DBC2C}"/>
+    <hyperlink ref="G88" r:id="rId93" xr:uid="{67EB6ECD-F1DF-452D-86B2-C4A1D85B4AB6}"/>
+    <hyperlink ref="G89" r:id="rId94" xr:uid="{4836C8D9-3760-4491-BE35-4405BDC15643}"/>
+    <hyperlink ref="G90" r:id="rId95" xr:uid="{2CD46F8F-7D9F-49BE-B37B-11A4223ED3E6}"/>
+    <hyperlink ref="G91" r:id="rId96" xr:uid="{0EFCE615-97EE-429A-9C0F-DDA868A5F660}"/>
+    <hyperlink ref="G92" r:id="rId97" xr:uid="{C7DAE321-C2FE-45BD-8AA3-2B71F7BBA873}"/>
+    <hyperlink ref="G93" r:id="rId98" xr:uid="{D33768DE-5D03-4EA4-A87B-BA38D4AAEBCF}"/>
+    <hyperlink ref="G95" r:id="rId99" xr:uid="{ED620748-394A-4EC2-897C-BDE35A49DD63}"/>
+    <hyperlink ref="G94" r:id="rId100" xr:uid="{349F3221-C696-4010-8692-E5720CCC8064}"/>
+    <hyperlink ref="G96" r:id="rId101" xr:uid="{F9A1FECF-1926-4E05-94C8-B2D94D47AB1A}"/>
+    <hyperlink ref="G97" r:id="rId102" xr:uid="{C4479F1A-1A77-4A09-8795-9183EE8BB45A}"/>
+    <hyperlink ref="G98" r:id="rId103" xr:uid="{5E6B110F-8514-44C3-892F-F85BFEE53615}"/>
+    <hyperlink ref="G99" r:id="rId104" xr:uid="{793AB810-1DDE-497F-944F-CFD63315D376}"/>
+    <hyperlink ref="G100" r:id="rId105" xr:uid="{E9DB85A7-FD8F-4AE3-B56D-562FA0749CC8}"/>
+    <hyperlink ref="G101" r:id="rId106" xr:uid="{DBA3B8A0-A9CB-448F-9667-9B5DD8C2C1ED}"/>
+    <hyperlink ref="G102" r:id="rId107" xr:uid="{E5D259F3-89A4-4336-8A80-7DC4C69420DA}"/>
+    <hyperlink ref="G103" r:id="rId108" xr:uid="{C8184A6A-F156-4495-842A-167F447FE326}"/>
+    <hyperlink ref="G105" r:id="rId109" xr:uid="{EA201C5A-F50E-4369-8289-B40AE1296DCA}"/>
+    <hyperlink ref="G106" r:id="rId110" xr:uid="{1F2A81FB-3CB8-494F-ABB9-F8BB2ED5CBAA}"/>
+    <hyperlink ref="G108" r:id="rId111" xr:uid="{80907635-0758-4C7A-9A93-298BC5DF7E5B}"/>
+    <hyperlink ref="G107" r:id="rId112" xr:uid="{57146C7E-A1B4-4ED2-A463-6F8234810B4C}"/>
+    <hyperlink ref="G104" r:id="rId113" xr:uid="{971CF8FC-3751-4E61-B598-4A71A2E0F4C3}"/>
+    <hyperlink ref="G109" r:id="rId114" xr:uid="{97C2183F-5E41-4EC2-AA49-4DF464A5490D}"/>
+    <hyperlink ref="G110" r:id="rId115" xr:uid="{04B49D3E-F702-40EA-AC2C-0F6769B7A412}"/>
+    <hyperlink ref="G111" r:id="rId116" xr:uid="{0FC51104-3524-45D6-ACDD-C94AD0AECD19}"/>
+    <hyperlink ref="G112" r:id="rId117" xr:uid="{E6BAA5ED-388E-4712-A32C-242BBF6ED3F8}"/>
+    <hyperlink ref="G113" r:id="rId118" xr:uid="{6E5DFF6E-7F66-4D4C-AD81-B0A7B27AC473}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId119"/>
 </worksheet>
 </file>
--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9002DCB7-8D15-4B8C-90A3-83D16E2B915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9CC46A-97B0-4C11-928E-8B3845D06301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="499">
   <si>
     <t>Partie ?</t>
   </si>
@@ -1305,6 +1305,237 @@
   </si>
   <si>
     <t xml:space="preserve">Source: Wikipédia sous licence CC-BY-SA </t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'un système autonome ? | Que sont les ASN ?</t>
+  </si>
+  <si>
+    <t>CloudFlare</t>
+  </si>
+  <si>
+    <t>Fiche sur les politiques publiques: Normes Internet ouvertes</t>
+  </si>
+  <si>
+    <t>Internet Society</t>
+  </si>
+  <si>
+    <t>30/10/15</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le DNS ? | Fonctionnement du DNS</t>
+  </si>
+  <si>
+    <t>Télétravail dans le secteur privé</t>
+  </si>
+  <si>
+    <t>Direction de l'information légale et administrative</t>
+  </si>
+  <si>
+    <t>04/03/22</t>
+  </si>
+  <si>
+    <t>Qu'est ce qu'un VPN ?</t>
+  </si>
+  <si>
+    <t>AO Kaspersky Lab</t>
+  </si>
+  <si>
+    <t>Le télétravail améliore-t-il la qualité de vie au travail ?</t>
+  </si>
+  <si>
+    <t>anact</t>
+  </si>
+  <si>
+    <t>20/12/18</t>
+  </si>
+  <si>
+    <t>Impacts du Télétravail 2018</t>
+  </si>
+  <si>
+    <t>Yves Lasfargue
+Sylvie Fauconnier</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le numérique ?</t>
+  </si>
+  <si>
+    <t>Talents du numérique</t>
+  </si>
+  <si>
+    <t>Code Morse international</t>
+  </si>
+  <si>
+    <t>Wikipédia</t>
+  </si>
+  <si>
+    <t>27/03/23</t>
+  </si>
+  <si>
+    <t>Modèle relationnel</t>
+  </si>
+  <si>
+    <t>16/02/23</t>
+  </si>
+  <si>
+    <t>Base de données</t>
+  </si>
+  <si>
+    <t>18/11/22</t>
+  </si>
+  <si>
+    <t>Bases et banques de données juridiques et économiques françaises</t>
+  </si>
+  <si>
+    <t>Bulletin des Bibliothèques de France – Anny Maximin</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook et Google, géants de la vente de données personnelles </t>
+  </si>
+  <si>
+    <t>29/12/19</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Le Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is cloud computing? Everything you need to know about the cloud explained </t>
+  </si>
+  <si>
+    <t>Steve Ranger</t>
+  </si>
+  <si>
+    <t>25/02/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZD Tech : Le cloud français écrasé par trois géants américains </t>
+  </si>
+  <si>
+    <t>Guillaume Serries</t>
+  </si>
+  <si>
+    <t>31/05/22</t>
+  </si>
+  <si>
+    <t>ESXi</t>
+  </si>
+  <si>
+    <t>vmware</t>
+  </si>
+  <si>
+    <t>Hypervisor</t>
+  </si>
+  <si>
+    <t>Etude et comparaison des failles de sécurité d’OpenStack et OpenNebula</t>
+  </si>
+  <si>
+    <t>HAMDANI Nadir, KERROUM Salima, OUALLOUCHE Nacera</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
+    <t>La sécurité et la virtualisation</t>
+  </si>
+  <si>
+    <t>Mai 2012</t>
+  </si>
+  <si>
+    <t>Florian Burnel</t>
+  </si>
+  <si>
+    <t>12/04/13</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’un objet connecté ?
+Comprendre et mesurer l’importance des objets connectés</t>
+  </si>
+  <si>
+    <t>Ministère de l’Education Nationale et de la Jeunesse</t>
+  </si>
+  <si>
+    <t>17/01/18</t>
+  </si>
+  <si>
+    <t>Objets connectés : les risques à connaître</t>
+  </si>
+  <si>
+    <t>DGCCRF</t>
+  </si>
+  <si>
+    <t>14/12/22</t>
+  </si>
+  <si>
+    <t>Quels sont les avantages des objets connectés ?</t>
+  </si>
+  <si>
+    <t>notre-planete.info</t>
+  </si>
+  <si>
+    <t>19/12/22</t>
+  </si>
+  <si>
+    <t>Connectivité IoT : explications et solutions</t>
+  </si>
+  <si>
+    <t>IoT Journey – Orange</t>
+  </si>
+  <si>
+    <t>Objet Connecté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les réseaux IoT</t>
+  </si>
+  <si>
+    <t>Connect Wave</t>
+  </si>
+  <si>
+    <t>Comment se compose un système IoT ?</t>
+  </si>
+  <si>
+    <t>L’IOT dans le retail : moteur d’une nouvelle expérience client</t>
+  </si>
+  <si>
+    <t>SmartTraffik</t>
+  </si>
+  <si>
+    <t>01/03/19</t>
+  </si>
+  <si>
+    <t>Objet connecté : la définition</t>
+  </si>
+  <si>
+    <t>Silamp</t>
+  </si>
+  <si>
+    <t>Radar Pédagogique Speed+</t>
+  </si>
+  <si>
+    <t>Net Collectivités</t>
+  </si>
+  <si>
+    <t>Informations sur l’alimentation Power over Ethernet (PoE, PoE+ &amp; Hi-Poe)</t>
+  </si>
+  <si>
+    <t>Perle Systems</t>
+  </si>
+  <si>
+    <t>Non à l’Automatisation des Métiers de l’Art</t>
+  </si>
+  <si>
+    <t>STAA</t>
+  </si>
+  <si>
+    <t>11/11/22</t>
+  </si>
+  <si>
+    <t>FIG8</t>
   </si>
 </sst>
 </file>
@@ -1750,8 +1981,8 @@
   <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M74" sqref="M74"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,7 +2094,9 @@
       <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2139,7 +2372,7 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>160</v>
@@ -2160,7 +2393,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>81</v>
@@ -2263,7 +2496,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>102</v>
+        <v>498</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>107</v>
@@ -3217,6 +3450,12 @@
       <c r="C72" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D72" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="G72" s="8" t="s">
         <v>213</v>
       </c>
@@ -3228,6 +3467,15 @@
       <c r="C73" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D73" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>427</v>
+      </c>
       <c r="G73" s="8" t="s">
         <v>214</v>
       </c>
@@ -3239,6 +3487,12 @@
       <c r="C74" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D74" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="G74" s="8" t="s">
         <v>215</v>
       </c>
@@ -3250,6 +3504,15 @@
       <c r="C75" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D75" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>431</v>
+      </c>
       <c r="G75" s="8" t="s">
         <v>216</v>
       </c>
@@ -3261,6 +3524,12 @@
       <c r="C76" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D76" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>433</v>
+      </c>
       <c r="G76" s="8" t="s">
         <v>114</v>
       </c>
@@ -3272,6 +3541,15 @@
       <c r="C77" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D77" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>436</v>
+      </c>
       <c r="G77" s="8" t="s">
         <v>217</v>
       </c>
@@ -3283,6 +3561,15 @@
       <c r="C78" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D78" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="G78" s="8" t="s">
         <v>218</v>
       </c>
@@ -3294,6 +3581,12 @@
       <c r="C79" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D79" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>440</v>
+      </c>
       <c r="G79" s="8" t="s">
         <v>220</v>
       </c>
@@ -3305,6 +3598,15 @@
       <c r="C80" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D80" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>443</v>
+      </c>
       <c r="G80" s="8" t="s">
         <v>221</v>
       </c>
@@ -3316,6 +3618,15 @@
       <c r="C81" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D81" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>445</v>
+      </c>
       <c r="G81" s="8" t="s">
         <v>128</v>
       </c>
@@ -3327,6 +3638,15 @@
       <c r="C82" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D82" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>447</v>
+      </c>
       <c r="G82" s="8" t="s">
         <v>222</v>
       </c>
@@ -3338,6 +3658,15 @@
       <c r="C83" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D83" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>450</v>
+      </c>
       <c r="G83" s="8" t="s">
         <v>223</v>
       </c>
@@ -3349,6 +3678,15 @@
       <c r="C84" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D84" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>452</v>
+      </c>
       <c r="G84" s="8" t="s">
         <v>224</v>
       </c>
@@ -3360,6 +3698,12 @@
       <c r="C85" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D85" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>454</v>
+      </c>
       <c r="G85" s="8" t="s">
         <v>225</v>
       </c>
@@ -3371,6 +3715,15 @@
       <c r="C86" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D86" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>457</v>
+      </c>
       <c r="G86" s="8" t="s">
         <v>227</v>
       </c>
@@ -3382,6 +3735,15 @@
       <c r="C87" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D87" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>460</v>
+      </c>
       <c r="G87" s="8" t="s">
         <v>228</v>
       </c>
@@ -3393,6 +3755,12 @@
       <c r="C88" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D88" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>462</v>
+      </c>
       <c r="G88" s="8" t="s">
         <v>229</v>
       </c>
@@ -3404,6 +3772,12 @@
       <c r="C89" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D89" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>462</v>
+      </c>
       <c r="G89" s="8" t="s">
         <v>230</v>
       </c>
@@ -3415,6 +3789,15 @@
       <c r="C90" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D90" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>466</v>
+      </c>
       <c r="G90" s="8" t="s">
         <v>231</v>
       </c>
@@ -3426,6 +3809,15 @@
       <c r="C91" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D91" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>468</v>
+      </c>
       <c r="G91" s="8" t="s">
         <v>232</v>
       </c>
@@ -3437,16 +3829,34 @@
       <c r="C92" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D92" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>470</v>
+      </c>
       <c r="G92" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>169</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>473</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>144</v>
@@ -3459,6 +3869,15 @@
       <c r="C94" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D94" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>476</v>
+      </c>
       <c r="G94" s="8" t="s">
         <v>235</v>
       </c>
@@ -3470,6 +3889,15 @@
       <c r="C95" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D95" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>479</v>
+      </c>
       <c r="G95" s="8" t="s">
         <v>236</v>
       </c>
@@ -3481,6 +3909,12 @@
       <c r="C96" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D96" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="G96" s="8" t="s">
         <v>237</v>
       </c>
@@ -3492,6 +3926,12 @@
       <c r="C97" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D97" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="G97" s="8" t="s">
         <v>238</v>
       </c>
@@ -3503,6 +3943,12 @@
       <c r="C98" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D98" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>484</v>
+      </c>
       <c r="G98" s="8" t="s">
         <v>239</v>
       </c>
@@ -3514,6 +3960,12 @@
       <c r="C99" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D99" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>484</v>
+      </c>
       <c r="G99" s="8" t="s">
         <v>240</v>
       </c>
@@ -3525,6 +3977,15 @@
       <c r="C100" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D100" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>488</v>
+      </c>
       <c r="G100" s="8" t="s">
         <v>241</v>
       </c>
@@ -3536,6 +3997,12 @@
       <c r="C101" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D101" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="G101" s="8" t="s">
         <v>242</v>
       </c>
@@ -3547,6 +4014,12 @@
       <c r="C102" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D102" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="G102" s="8" t="s">
         <v>243</v>
       </c>
@@ -3558,6 +4031,12 @@
       <c r="C103" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D103" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>494</v>
+      </c>
       <c r="G103" s="8" t="s">
         <v>244</v>
       </c>
@@ -3568,6 +4047,15 @@
       </c>
       <c r="C104" s="2" t="s">
         <v>169</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>497</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>245</v>

--- a/bibliographie.xlsx
+++ b/bibliographie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9CC46A-97B0-4C11-928E-8B3845D06301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF76517-12D1-4053-A5CA-B5437B8E011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$A$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$40:$A$126</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="722">
   <si>
     <t>Partie ?</t>
   </si>
@@ -337,9 +337,6 @@
     <t>4,1,1</t>
   </si>
   <si>
-    <t>FIG</t>
-  </si>
-  <si>
     <t>Les métier les plus menacés par l'automatisation</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>3,1,6</t>
   </si>
   <si>
-    <t>CIT</t>
-  </si>
-  <si>
     <t>!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
   </si>
   <si>
@@ -536,9 +530,6 @@
   </si>
   <si>
     <t>Stiegler Bernard</t>
-  </si>
-  <si>
-    <t>SRC</t>
   </si>
   <si>
     <t>Demain, le temps des automates et le temps de la désautomatisation</t>
@@ -1535,7 +1526,685 @@
     <t>11/11/22</t>
   </si>
   <si>
-    <t>FIG8</t>
+    <t>FIG11</t>
+  </si>
+  <si>
+    <t>FIG14</t>
+  </si>
+  <si>
+    <t>CIT17</t>
+  </si>
+  <si>
+    <t>CIT18</t>
+  </si>
+  <si>
+    <t>CIT19</t>
+  </si>
+  <si>
+    <t>FIG15</t>
+  </si>
+  <si>
+    <t>FIG17</t>
+  </si>
+  <si>
+    <t>FIG16</t>
+  </si>
+  <si>
+    <t>FIG13</t>
+  </si>
+  <si>
+    <t>FIG18</t>
+  </si>
+  <si>
+    <t>CIT20</t>
+  </si>
+  <si>
+    <t>FIG19</t>
+  </si>
+  <si>
+    <t>FIG20</t>
+  </si>
+  <si>
+    <t>FIG21</t>
+  </si>
+  <si>
+    <t>CIT21</t>
+  </si>
+  <si>
+    <t>SRC10</t>
+  </si>
+  <si>
+    <t>SRC11</t>
+  </si>
+  <si>
+    <t>SRC12</t>
+  </si>
+  <si>
+    <t>SRC13</t>
+  </si>
+  <si>
+    <t>SRC14</t>
+  </si>
+  <si>
+    <t>SRC15</t>
+  </si>
+  <si>
+    <t>SRC16</t>
+  </si>
+  <si>
+    <t>SRC17</t>
+  </si>
+  <si>
+    <t>SRC18</t>
+  </si>
+  <si>
+    <t>SRC19</t>
+  </si>
+  <si>
+    <t>SRC20</t>
+  </si>
+  <si>
+    <t>SRC21</t>
+  </si>
+  <si>
+    <t>SRC22</t>
+  </si>
+  <si>
+    <t>SRC23</t>
+  </si>
+  <si>
+    <t>SRC24</t>
+  </si>
+  <si>
+    <t>SRC25</t>
+  </si>
+  <si>
+    <t>SRC26</t>
+  </si>
+  <si>
+    <t>SRC27</t>
+  </si>
+  <si>
+    <t>SRC28</t>
+  </si>
+  <si>
+    <t>SRC29</t>
+  </si>
+  <si>
+    <t>SRC30</t>
+  </si>
+  <si>
+    <t>SRC31</t>
+  </si>
+  <si>
+    <t>SRC32</t>
+  </si>
+  <si>
+    <t>SRC33</t>
+  </si>
+  <si>
+    <t>SRC34</t>
+  </si>
+  <si>
+    <t>SRC35</t>
+  </si>
+  <si>
+    <t>SRC36</t>
+  </si>
+  <si>
+    <t>SRC37</t>
+  </si>
+  <si>
+    <t>SRC38</t>
+  </si>
+  <si>
+    <t>SRC39</t>
+  </si>
+  <si>
+    <t>SRC40</t>
+  </si>
+  <si>
+    <t>SRC41</t>
+  </si>
+  <si>
+    <t>SRC42</t>
+  </si>
+  <si>
+    <t>SRC43</t>
+  </si>
+  <si>
+    <t>SRC44</t>
+  </si>
+  <si>
+    <t>SRC45</t>
+  </si>
+  <si>
+    <t>SRC46</t>
+  </si>
+  <si>
+    <t>SRC47</t>
+  </si>
+  <si>
+    <t>SRC48</t>
+  </si>
+  <si>
+    <t>SRC49</t>
+  </si>
+  <si>
+    <t>SRC50</t>
+  </si>
+  <si>
+    <t>SRC51</t>
+  </si>
+  <si>
+    <t>SRC52</t>
+  </si>
+  <si>
+    <t>SRC53</t>
+  </si>
+  <si>
+    <t>SRC54</t>
+  </si>
+  <si>
+    <t>SRC55</t>
+  </si>
+  <si>
+    <t>SRC56</t>
+  </si>
+  <si>
+    <t>SRC57</t>
+  </si>
+  <si>
+    <t>SRC58</t>
+  </si>
+  <si>
+    <t>SRC59</t>
+  </si>
+  <si>
+    <t>SRC60</t>
+  </si>
+  <si>
+    <t>SRC61</t>
+  </si>
+  <si>
+    <t>SRC62</t>
+  </si>
+  <si>
+    <t>SRC63</t>
+  </si>
+  <si>
+    <t>SRC64</t>
+  </si>
+  <si>
+    <t>SRC65</t>
+  </si>
+  <si>
+    <t>SRC66</t>
+  </si>
+  <si>
+    <t>SRC67</t>
+  </si>
+  <si>
+    <t>SRC68</t>
+  </si>
+  <si>
+    <t>SRC69</t>
+  </si>
+  <si>
+    <t>SRC70</t>
+  </si>
+  <si>
+    <t>SRC71</t>
+  </si>
+  <si>
+    <t>SRC72</t>
+  </si>
+  <si>
+    <t>SRC73</t>
+  </si>
+  <si>
+    <t>SRC74</t>
+  </si>
+  <si>
+    <t>SRC75</t>
+  </si>
+  <si>
+    <t>SRC76</t>
+  </si>
+  <si>
+    <t>SRC77</t>
+  </si>
+  <si>
+    <t>SRC78</t>
+  </si>
+  <si>
+    <t>SRC79</t>
+  </si>
+  <si>
+    <t>SRC80</t>
+  </si>
+  <si>
+    <t>SRC81</t>
+  </si>
+  <si>
+    <t>SRC82</t>
+  </si>
+  <si>
+    <t>SRC83</t>
+  </si>
+  <si>
+    <t>SRC84</t>
+  </si>
+  <si>
+    <t>SRC85</t>
+  </si>
+  <si>
+    <t>SRC86</t>
+  </si>
+  <si>
+    <t>SRC87</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>S37</t>
+  </si>
+  <si>
+    <t>S38</t>
+  </si>
+  <si>
+    <t>S39</t>
+  </si>
+  <si>
+    <t>S40</t>
+  </si>
+  <si>
+    <t>S41</t>
+  </si>
+  <si>
+    <t>S42</t>
+  </si>
+  <si>
+    <t>S43</t>
+  </si>
+  <si>
+    <t>S44</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>S46</t>
+  </si>
+  <si>
+    <t>S47</t>
+  </si>
+  <si>
+    <t>S48</t>
+  </si>
+  <si>
+    <t>S49</t>
+  </si>
+  <si>
+    <t>S50</t>
+  </si>
+  <si>
+    <t>S51</t>
+  </si>
+  <si>
+    <t>S52</t>
+  </si>
+  <si>
+    <t>S53</t>
+  </si>
+  <si>
+    <t>S54</t>
+  </si>
+  <si>
+    <t>S55</t>
+  </si>
+  <si>
+    <t>S56</t>
+  </si>
+  <si>
+    <t>S57</t>
+  </si>
+  <si>
+    <t>S58</t>
+  </si>
+  <si>
+    <t>S59</t>
+  </si>
+  <si>
+    <t>S60</t>
+  </si>
+  <si>
+    <t>S61</t>
+  </si>
+  <si>
+    <t>S62</t>
+  </si>
+  <si>
+    <t>S63</t>
+  </si>
+  <si>
+    <t>S64</t>
+  </si>
+  <si>
+    <t>S65</t>
+  </si>
+  <si>
+    <t>S66</t>
+  </si>
+  <si>
+    <t>S67</t>
+  </si>
+  <si>
+    <t>S68</t>
+  </si>
+  <si>
+    <t>S69</t>
+  </si>
+  <si>
+    <t>S70</t>
+  </si>
+  <si>
+    <t>S71</t>
+  </si>
+  <si>
+    <t>S72</t>
+  </si>
+  <si>
+    <t>S73</t>
+  </si>
+  <si>
+    <t>S74</t>
+  </si>
+  <si>
+    <t>S75</t>
+  </si>
+  <si>
+    <t>S76</t>
+  </si>
+  <si>
+    <t>S77</t>
+  </si>
+  <si>
+    <t>S78</t>
+  </si>
+  <si>
+    <t>S79</t>
+  </si>
+  <si>
+    <t>S80</t>
+  </si>
+  <si>
+    <t>S81</t>
+  </si>
+  <si>
+    <t>S82</t>
+  </si>
+  <si>
+    <t>S83</t>
+  </si>
+  <si>
+    <t>S84</t>
+  </si>
+  <si>
+    <t>S85</t>
+  </si>
+  <si>
+    <t>S86</t>
+  </si>
+  <si>
+    <t>S87</t>
+  </si>
+  <si>
+    <t>S88</t>
+  </si>
+  <si>
+    <t>S89</t>
+  </si>
+  <si>
+    <t>S90</t>
+  </si>
+  <si>
+    <t>S91</t>
+  </si>
+  <si>
+    <t>S92</t>
+  </si>
+  <si>
+    <t>S93</t>
+  </si>
+  <si>
+    <t>S94</t>
+  </si>
+  <si>
+    <t>S95</t>
+  </si>
+  <si>
+    <t>S96</t>
+  </si>
+  <si>
+    <t>S97</t>
+  </si>
+  <si>
+    <t>S98</t>
+  </si>
+  <si>
+    <t>S99</t>
+  </si>
+  <si>
+    <t>S100</t>
+  </si>
+  <si>
+    <t>S101</t>
+  </si>
+  <si>
+    <t>S102</t>
+  </si>
+  <si>
+    <t>S103</t>
+  </si>
+  <si>
+    <t>S104</t>
+  </si>
+  <si>
+    <t>S105</t>
+  </si>
+  <si>
+    <t>S106</t>
+  </si>
+  <si>
+    <t>S107</t>
+  </si>
+  <si>
+    <t>S108</t>
+  </si>
+  <si>
+    <t>S109</t>
+  </si>
+  <si>
+    <t>S110</t>
+  </si>
+  <si>
+    <t>S111</t>
+  </si>
+  <si>
+    <t>S112</t>
+  </si>
+  <si>
+    <t>S113</t>
+  </si>
+  <si>
+    <t>S114</t>
+  </si>
+  <si>
+    <t>S115</t>
+  </si>
+  <si>
+    <t>S116</t>
+  </si>
+  <si>
+    <t>S117</t>
+  </si>
+  <si>
+    <t>S118</t>
+  </si>
+  <si>
+    <t>S119</t>
+  </si>
+  <si>
+    <t>S120</t>
+  </si>
+  <si>
+    <t>S121</t>
+  </si>
+  <si>
+    <t>S122</t>
+  </si>
+  <si>
+    <t>S123</t>
+  </si>
+  <si>
+    <t>S124</t>
+  </si>
+  <si>
+    <t>S125</t>
+  </si>
+  <si>
+    <t>SRC04</t>
+  </si>
+  <si>
+    <t>SRC05</t>
+  </si>
+  <si>
+    <t>SRC06</t>
+  </si>
+  <si>
+    <t>SRC07</t>
+  </si>
+  <si>
+    <t>SRC09</t>
+  </si>
+  <si>
+    <t>SRC08</t>
+  </si>
+  <si>
+    <t>SRC03</t>
+  </si>
+  <si>
+    <t>SRC02</t>
+  </si>
+  <si>
+    <t>SRC01</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +2261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1628,23 +2297,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1661,9 +2319,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1673,29 +2328,41 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1981,8 +2648,8 @@
   <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +2658,7 @@
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="37" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -2001,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>28</v>
@@ -2012,1902 +2679,2142 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>173</v>
+      <c r="F1" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5"/>
+        <v>175</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>626</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>721</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>284</v>
+        <v>169</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>588</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>589</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="F13" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>284</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>593</v>
+      </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>594</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>292</v>
+        <v>33</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>595</v>
+      </c>
       <c r="C17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>76</v>
+        <v>39</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>279</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="C18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>295</v>
+        <v>42</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>597</v>
+      </c>
       <c r="C19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>160</v>
+        <v>45</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>598</v>
+      </c>
       <c r="C20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>81</v>
+        <v>54</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>599</v>
+      </c>
       <c r="C21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>85</v>
+        <v>64</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="C22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>89</v>
+        <v>56</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>300</v>
+        <v>58</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>601</v>
+      </c>
       <c r="C23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>94</v>
+        <v>61</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>602</v>
+      </c>
       <c r="C24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>603</v>
+      </c>
       <c r="C25" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>284</v>
+        <v>5</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>604</v>
+      </c>
       <c r="C26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>109</v>
+        <v>71</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>292</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>634</v>
+      </c>
       <c r="C27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="5"/>
+        <v>717</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>635</v>
+      </c>
       <c r="C28" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="5"/>
+        <v>510</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>636</v>
+      </c>
       <c r="C29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="5"/>
+        <v>511</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>637</v>
+      </c>
       <c r="C30" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>128</v>
+        <v>512</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="5"/>
+      <c r="A31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>638</v>
+      </c>
       <c r="C31" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>130</v>
+        <v>513</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="5"/>
+      <c r="A32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>639</v>
+      </c>
       <c r="C32" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="4" t="s">
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>605</v>
+      </c>
       <c r="C38" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>103</v>
+        <v>79</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>123</v>
+        <v>157</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B39" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="C39" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>607</v>
+      </c>
       <c r="C40" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>166</v>
+        <v>84</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>608</v>
+      </c>
       <c r="C41" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>170</v>
+        <v>97</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>307</v>
+        <v>92</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>180</v>
+        <v>194</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>169</v>
+        <v>196</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>522</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>169</v>
+        <v>196</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>169</v>
+        <v>196</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>524</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>169</v>
+        <v>204</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>525</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>169</v>
+        <v>204</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>169</v>
+        <v>204</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>527</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>169</v>
+        <v>204</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>528</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>529</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>530</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>345</v>
+        <v>415</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>532</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>348</v>
+        <v>420</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>160</v>
+        <v>422</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>158</v>
+        <v>423</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>351</v>
+        <v>425</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>198</v>
+        <v>421</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>356</v>
+        <v>429</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>206</v>
+        <v>435</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>209</v>
+      <c r="A68" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>169</v>
+        <v>216</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>169</v>
+        <v>216</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>541</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>211</v>
+        <v>439</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>169</v>
+        <v>216</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>169</v>
+        <v>216</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>213</v>
+        <v>439</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>169</v>
+        <v>216</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>544</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>169</v>
+        <v>216</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>545</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>215</v>
+        <v>277</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>169</v>
+        <v>216</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>169</v>
+        <v>223</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>547</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>169</v>
+        <v>223</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>220</v>
+        <v>456</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>169</v>
+        <v>223</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>221</v>
+        <v>459</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>169</v>
+        <v>223</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>169</v>
+        <v>223</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>169</v>
+        <v>223</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>552</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="G83" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>169</v>
+      <c r="B84" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>451</v>
+        <v>141</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>225</v>
+        <v>466</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>228</v>
+      <c r="A86" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="G90" s="8" t="s">
+      <c r="A88" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>169</v>
+      <c r="B91" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>554</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="G91" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>169</v>
+        <v>231</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>558</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F95" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>236</v>
+      <c r="G95" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>169</v>
+        <v>231</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>480</v>
@@ -3915,16 +4822,19 @@
       <c r="E96" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="G96" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G96" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>169</v>
+        <v>231</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>482</v>
@@ -3932,16 +4842,19 @@
       <c r="E97" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="G97" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G97" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>169</v>
+        <v>231</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>561</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>483</v>
@@ -3949,667 +4862,758 @@
       <c r="E98" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="F98" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>169</v>
+        <v>231</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>563</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>241</v>
+        <v>489</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>169</v>
+        <v>231</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>564</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="G101" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="G102" s="8" t="s">
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>169</v>
+        <v>255</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>567</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>495</v>
+        <v>412</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F104" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="G104" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>169</v>
+        <v>255</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>569</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>415</v>
+        <v>273</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F106" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="G106" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F107" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>169</v>
+        <v>255</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>571</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>276</v>
+        <v>404</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="G108" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>169</v>
+        <v>255</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>573</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>251</v>
+        <v>272</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>169</v>
+        <v>255</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>574</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="G111" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F112" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F113" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>169</v>
+        <v>255</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>577</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>281</v>
+        <v>391</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F114" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>224</v>
+        <v>393</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F116" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="F117" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F118" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G118" s="8" t="s">
+    </row>
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F120" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F121" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="G122" s="8" t="s">
+    </row>
+    <row r="124" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F125" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E123" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="F123" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C124" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="F124" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F125" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F126" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>274</v>
+      <c r="F126" s="8"/>
+      <c r="G126" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G39">
-    <sortCondition ref="A1:A39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G126">
+    <sortCondition ref="A2:A126"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" location="definition" xr:uid="{53FE3B05-AD56-43B0-AFD3-3B30FFF4103B}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00D33B7A-1C7C-42B6-A230-EEDF19A87528}"/>
-    <hyperlink ref="G7" r:id="rId3" xr:uid="{EBCE9B6B-340F-4C64-964B-563D0EF89E25}"/>
-    <hyperlink ref="G25" r:id="rId4" xr:uid="{890B158D-5E21-4ADC-882C-DA4367AEDEA0}"/>
-    <hyperlink ref="G24" r:id="rId5" xr:uid="{DDD0730F-D557-4E25-A0C0-CF11371FE9AE}"/>
-    <hyperlink ref="G37" r:id="rId6" xr:uid="{089A9BF8-9681-42D1-8FD9-118A1960AEF9}"/>
-    <hyperlink ref="G32" r:id="rId7" xr:uid="{A7D8A8BF-DF29-494D-A0A8-AF2DCD6B40BD}"/>
-    <hyperlink ref="G8" r:id="rId8" xr:uid="{59F010F0-95E1-48C4-B5AB-C4FC5590C6E7}"/>
-    <hyperlink ref="G9" r:id="rId9" xr:uid="{39175177-77D4-4015-806B-72E21FC6C7D3}"/>
-    <hyperlink ref="G10" r:id="rId10" location="19" xr:uid="{3A67EAAF-0637-4983-BA15-A4489ED6DF60}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{42FC376D-13E8-4383-9023-61E043339EE8}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{C8111356-36A3-4967-A3D1-D82E49757C85}"/>
-    <hyperlink ref="G15" r:id="rId13" xr:uid="{D7042514-A462-4EDE-AE96-567CF3659E5E}"/>
-    <hyperlink ref="G16" r:id="rId14" xr:uid="{970CCD77-024A-48BC-A6AE-7338B0AE3A51}"/>
-    <hyperlink ref="G17" r:id="rId15" xr:uid="{E86B1202-4B08-469B-859D-03655FC83C8D}"/>
-    <hyperlink ref="G18" r:id="rId16" xr:uid="{D1C614EA-BCFA-48A1-A4DC-B996BEF8CA58}"/>
-    <hyperlink ref="G19" r:id="rId17" xr:uid="{E27794D7-CA73-4BDA-AB71-C137F994C72A}"/>
-    <hyperlink ref="G20" r:id="rId18" xr:uid="{B4D2CE99-0401-4FAD-A519-32602E8932BD}"/>
-    <hyperlink ref="G21" r:id="rId19" xr:uid="{3269518A-500E-4DD5-930F-6FB67804B67E}"/>
-    <hyperlink ref="G23" r:id="rId20" xr:uid="{E7B62B90-8CF8-4D1A-98FE-04FB7EF1C243}"/>
-    <hyperlink ref="G26" r:id="rId21" xr:uid="{EBC823FB-CAED-484B-A73B-7DB183F8E2A0}"/>
-    <hyperlink ref="G27" r:id="rId22" xr:uid="{06B5A571-AA24-4CDB-8D3F-691193585E94}"/>
-    <hyperlink ref="G28" r:id="rId23" xr:uid="{6F630FAA-89BD-415A-B3EC-C846B84234D0}"/>
-    <hyperlink ref="G29" r:id="rId24" xr:uid="{CB856D25-5213-49C0-B8F0-E834B0DDD444}"/>
-    <hyperlink ref="G30" r:id="rId25" xr:uid="{7ADBBDA7-9F4E-4F27-9B68-2BAA935E777D}"/>
-    <hyperlink ref="G31" r:id="rId26" xr:uid="{D2815E43-9EA9-427B-95CE-E759E0E9C816}"/>
-    <hyperlink ref="G33" r:id="rId27" xr:uid="{035EB779-8DE3-402B-886E-B2D3DA288904}"/>
-    <hyperlink ref="G35" r:id="rId28" xr:uid="{8255171C-558C-4CF9-B934-D8CF84205AB5}"/>
-    <hyperlink ref="G34" r:id="rId29" xr:uid="{9C3AA28E-D4AD-46EE-AFCD-11E4589224F3}"/>
-    <hyperlink ref="G36" r:id="rId30" xr:uid="{D5A3774F-5EB7-45F1-8758-BE6E6C8A78EE}"/>
-    <hyperlink ref="G39" r:id="rId31" xr:uid="{19F83A1F-3E80-47BC-A7C9-0B8706BC266D}"/>
-    <hyperlink ref="G40" r:id="rId32" xr:uid="{E5857682-DF6E-43E2-90D4-9E08D073E748}"/>
-    <hyperlink ref="G41" r:id="rId33" xr:uid="{D99B7C9F-3427-4B51-83EA-811544F0425D}"/>
-    <hyperlink ref="G42" r:id="rId34" xr:uid="{A5EEF38D-D7B2-44D1-908F-9EA61329AA79}"/>
-    <hyperlink ref="G43" r:id="rId35" xr:uid="{9BA7888C-4116-4DEC-BBF5-FAF77B17558F}"/>
-    <hyperlink ref="G44" r:id="rId36" xr:uid="{56AE1F90-1CE2-49E2-BAD0-ED0A961D30A6}"/>
-    <hyperlink ref="G45" r:id="rId37" xr:uid="{F5F0EE82-324C-4814-A5F7-B64693CB795B}"/>
-    <hyperlink ref="G46" r:id="rId38" xr:uid="{12F00E55-F35D-44B1-A891-6FF8AEB8D1E4}"/>
-    <hyperlink ref="G47" r:id="rId39" xr:uid="{BAE39C2A-89E8-41BC-883B-7DBB49762EBC}"/>
-    <hyperlink ref="G48" r:id="rId40" xr:uid="{8A96DCED-9AB2-4887-B501-B944E550249A}"/>
-    <hyperlink ref="G49" r:id="rId41" xr:uid="{D8EDF7F8-DF6C-44A7-84DC-861F29CA5246}"/>
-    <hyperlink ref="G50" r:id="rId42" xr:uid="{79AB7990-0C11-4D7C-B6A2-DE1C974F881E}"/>
-    <hyperlink ref="G51" r:id="rId43" xr:uid="{A0BCFA8F-F79C-4EB8-BFCB-C0A178B2BFDD}"/>
-    <hyperlink ref="G52" r:id="rId44" xr:uid="{5E467FDA-FF53-4929-A703-890E7681E375}"/>
-    <hyperlink ref="G53" r:id="rId45" xr:uid="{37D37875-8AE7-4F66-AB15-77D46A6E2C4D}"/>
-    <hyperlink ref="G54" r:id="rId46" xr:uid="{6FC4AAEB-37DE-4040-84E0-B663D8DE1A2A}"/>
-    <hyperlink ref="G55" r:id="rId47" xr:uid="{21A46774-2C31-45E7-BE4E-BF17EF0BA0C8}"/>
-    <hyperlink ref="G56" r:id="rId48" xr:uid="{9C19AB85-62B5-4113-BD75-F9F01F87730E}"/>
-    <hyperlink ref="G57" r:id="rId49" xr:uid="{977206D6-5560-4454-B771-7F9D1629165E}"/>
-    <hyperlink ref="G58" r:id="rId50" xr:uid="{900D3FC1-B98C-4A29-8B8A-0DC88934C4FD}"/>
-    <hyperlink ref="G59" r:id="rId51" xr:uid="{C703A766-7513-4C67-B590-10160039293C}"/>
-    <hyperlink ref="G60" r:id="rId52" xr:uid="{A72C8C8A-A9CA-48B7-B1B4-23BD4B352D69}"/>
-    <hyperlink ref="G61" r:id="rId53" xr:uid="{79AEDCBE-5D55-43FF-97BF-8651272AC90A}"/>
-    <hyperlink ref="G62" r:id="rId54" xr:uid="{D4B2CDE2-D1C6-4992-A433-1C894639702D}"/>
-    <hyperlink ref="G63" r:id="rId55" xr:uid="{0F77D7DF-D151-4EA3-ADC6-E8B2DC184AAD}"/>
-    <hyperlink ref="G64" r:id="rId56" xr:uid="{3A14232B-8906-4A19-8B0D-D903AFEF59EE}"/>
-    <hyperlink ref="G65" r:id="rId57" xr:uid="{C8EF7D6F-EF98-4264-A773-0C08627E1533}"/>
-    <hyperlink ref="G66" r:id="rId58" location="v=onepage&amp;q=watson%20d'IBM&amp;f=false" xr:uid="{73DB6B4D-D6AE-4293-85D1-F99A42A4E96F}"/>
-    <hyperlink ref="G126" r:id="rId59" xr:uid="{CDDADBD8-2C82-420C-BF2C-1AE97542D465}"/>
-    <hyperlink ref="G125" r:id="rId60" xr:uid="{10D47DD8-99B8-409C-9DCC-2B7BEE2D5470}"/>
-    <hyperlink ref="G124" r:id="rId61" xr:uid="{D79D539B-6F25-47F9-98CF-C428D171C597}"/>
-    <hyperlink ref="G123" r:id="rId62" xr:uid="{2107EFC9-A970-485A-B4A3-5B76E85019C4}"/>
-    <hyperlink ref="G122" r:id="rId63" xr:uid="{D5A3AE6C-1FE5-415D-9D12-323B45F0D7AB}"/>
-    <hyperlink ref="G121" r:id="rId64" xr:uid="{4F194A6E-CB9E-48EA-B7AB-EB56B71EE961}"/>
-    <hyperlink ref="G120" r:id="rId65" display="https://fr.style.yahoo.com/6-astuces-passer-moins-temps-154000682.html?guccounter=1&amp;guce_referrer=aHR0cHM6Ly93d3cuZ29vZ2xlLmNvbS8&amp;guce_referrer_sig=AQAAAFP1Gu4S6nj-Vw-UrRkxAE5BG5ZuoJg9cBeJddlgZ0Ie1FouEBWoEaQw0XrKhCrPUMWnWX6_bLW2m83pVMGXnjFii9j254I4r_tGMFvVcbEQHrERC5XLvd41nqBARwgc5n0DK49pBxnVW7OJvwv38hVuhtKRcZQWGW2w4VeowDhF" xr:uid="{73C7E9C3-5773-4653-8376-D9FFB1B55332}"/>
-    <hyperlink ref="G119" r:id="rId66" xr:uid="{550E9B2B-3048-4658-BFE4-03824FCD6BCB}"/>
-    <hyperlink ref="G118" r:id="rId67" xr:uid="{3600C3FC-3CFA-41D8-90AF-50436434CC09}"/>
-    <hyperlink ref="G117" r:id="rId68" xr:uid="{292D75D5-18B6-43F9-A596-290380AEA8BC}"/>
-    <hyperlink ref="G116" r:id="rId69" xr:uid="{35861E47-1CA7-43E9-A790-014E9739AF37}"/>
-    <hyperlink ref="G115" r:id="rId70" xr:uid="{950C7787-AC57-4CE4-AA37-F6A4F66BF30E}"/>
-    <hyperlink ref="G114" r:id="rId71" xr:uid="{9A7D4A9F-3866-4E99-BD7B-C3A257109E06}"/>
-    <hyperlink ref="G67" r:id="rId72" xr:uid="{7899AFCD-20D3-4460-8638-0298EBB59A0F}"/>
-    <hyperlink ref="G68" r:id="rId73" xr:uid="{6A76A62A-2354-49DE-A260-EC6E449E67B2}"/>
-    <hyperlink ref="G69" r:id="rId74" xr:uid="{1FCA5F93-CBEE-4F46-8791-B2183ACA2D4D}"/>
-    <hyperlink ref="G70" r:id="rId75" xr:uid="{2B116653-90F9-42FC-877E-6424F1ECEF3B}"/>
-    <hyperlink ref="G71" r:id="rId76" xr:uid="{2DCFFC24-0B46-44B4-AE72-A4765AF42BC0}"/>
-    <hyperlink ref="G72" r:id="rId77" xr:uid="{13627100-86C2-48B0-8D19-8C4B41806634}"/>
-    <hyperlink ref="G73" r:id="rId78" xr:uid="{EEBCF4B3-90DF-4D2F-80B6-E91D208B80C2}"/>
-    <hyperlink ref="G74" r:id="rId79" xr:uid="{2D07692A-9DA6-447E-89F0-D920E1E65B15}"/>
-    <hyperlink ref="G75" r:id="rId80" xr:uid="{D9080218-CEAF-46B3-8EB5-5C9A97E811F9}"/>
-    <hyperlink ref="G76" r:id="rId81" xr:uid="{36866ECB-576F-414D-AE5D-9B64A35FB9C3}"/>
-    <hyperlink ref="G77" r:id="rId82" xr:uid="{6A38D58A-0894-445E-803F-D3BF99C50AEB}"/>
-    <hyperlink ref="G78" r:id="rId83" xr:uid="{F98A3B0B-AC0C-4EE7-A5EE-FC1B603CFFA6}"/>
-    <hyperlink ref="G79" r:id="rId84" xr:uid="{5E73D9C3-05C2-4E11-A7B7-B92DC02125E3}"/>
-    <hyperlink ref="G80" r:id="rId85" xr:uid="{9003E79C-A9DB-4656-B804-A6214D18F764}"/>
-    <hyperlink ref="G81" r:id="rId86" xr:uid="{B7B9C06E-B406-481D-8C73-F057300F7A19}"/>
-    <hyperlink ref="G82" r:id="rId87" xr:uid="{EA82C4EF-F2ED-4614-A148-0719896B245C}"/>
-    <hyperlink ref="G83" r:id="rId88" xr:uid="{1B116784-4279-49F1-99BC-C8F379313F21}"/>
-    <hyperlink ref="G84" r:id="rId89" xr:uid="{70835059-2379-4D6F-9760-23FBFE7145B5}"/>
-    <hyperlink ref="G85" r:id="rId90" xr:uid="{0141F4AC-F42C-4F6F-9459-E1FC8874DE49}"/>
-    <hyperlink ref="G86" r:id="rId91" xr:uid="{72C93F7A-761A-4F39-A724-87E08A110E8C}"/>
-    <hyperlink ref="G87" r:id="rId92" xr:uid="{6BAC6CA3-2437-4AF9-B126-9E377E5DBC2C}"/>
-    <hyperlink ref="G88" r:id="rId93" xr:uid="{67EB6ECD-F1DF-452D-86B2-C4A1D85B4AB6}"/>
-    <hyperlink ref="G89" r:id="rId94" xr:uid="{4836C8D9-3760-4491-BE35-4405BDC15643}"/>
-    <hyperlink ref="G90" r:id="rId95" xr:uid="{2CD46F8F-7D9F-49BE-B37B-11A4223ED3E6}"/>
-    <hyperlink ref="G91" r:id="rId96" xr:uid="{0EFCE615-97EE-429A-9C0F-DDA868A5F660}"/>
-    <hyperlink ref="G92" r:id="rId97" xr:uid="{C7DAE321-C2FE-45BD-8AA3-2B71F7BBA873}"/>
-    <hyperlink ref="G93" r:id="rId98" xr:uid="{D33768DE-5D03-4EA4-A87B-BA38D4AAEBCF}"/>
-    <hyperlink ref="G95" r:id="rId99" xr:uid="{ED620748-394A-4EC2-897C-BDE35A49DD63}"/>
-    <hyperlink ref="G94" r:id="rId100" xr:uid="{349F3221-C696-4010-8692-E5720CCC8064}"/>
-    <hyperlink ref="G96" r:id="rId101" xr:uid="{F9A1FECF-1926-4E05-94C8-B2D94D47AB1A}"/>
-    <hyperlink ref="G97" r:id="rId102" xr:uid="{C4479F1A-1A77-4A09-8795-9183EE8BB45A}"/>
-    <hyperlink ref="G98" r:id="rId103" xr:uid="{5E6B110F-8514-44C3-892F-F85BFEE53615}"/>
-    <hyperlink ref="G99" r:id="rId104" xr:uid="{793AB810-1DDE-497F-944F-CFD63315D376}"/>
-    <hyperlink ref="G100" r:id="rId105" xr:uid="{E9DB85A7-FD8F-4AE3-B56D-562FA0749CC8}"/>
-    <hyperlink ref="G101" r:id="rId106" xr:uid="{DBA3B8A0-A9CB-448F-9667-9B5DD8C2C1ED}"/>
-    <hyperlink ref="G102" r:id="rId107" xr:uid="{E5D259F3-89A4-4336-8A80-7DC4C69420DA}"/>
-    <hyperlink ref="G103" r:id="rId108" xr:uid="{C8184A6A-F156-4495-842A-167F447FE326}"/>
-    <hyperlink ref="G105" r:id="rId109" xr:uid="{EA201C5A-F50E-4369-8289-B40AE1296DCA}"/>
-    <hyperlink ref="G106" r:id="rId110" xr:uid="{1F2A81FB-3CB8-494F-ABB9-F8BB2ED5CBAA}"/>
-    <hyperlink ref="G108" r:id="rId111" xr:uid="{80907635-0758-4C7A-9A93-298BC5DF7E5B}"/>
-    <hyperlink ref="G107" r:id="rId112" xr:uid="{57146C7E-A1B4-4ED2-A463-6F8234810B4C}"/>
-    <hyperlink ref="G104" r:id="rId113" xr:uid="{971CF8FC-3751-4E61-B598-4A71A2E0F4C3}"/>
-    <hyperlink ref="G109" r:id="rId114" xr:uid="{97C2183F-5E41-4EC2-AA49-4DF464A5490D}"/>
-    <hyperlink ref="G110" r:id="rId115" xr:uid="{04B49D3E-F702-40EA-AC2C-0F6769B7A412}"/>
-    <hyperlink ref="G111" r:id="rId116" xr:uid="{0FC51104-3524-45D6-ACDD-C94AD0AECD19}"/>
-    <hyperlink ref="G112" r:id="rId117" xr:uid="{E6BAA5ED-388E-4712-A32C-242BBF6ED3F8}"/>
-    <hyperlink ref="G113" r:id="rId118" xr:uid="{6E5DFF6E-7F66-4D4C-AD81-B0A7B27AC473}"/>
+    <hyperlink ref="G3" r:id="rId1" location="definition" xr:uid="{53FE3B05-AD56-43B0-AFD3-3B30FFF4103B}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00D33B7A-1C7C-42B6-A230-EEDF19A87528}"/>
+    <hyperlink ref="G15" r:id="rId3" xr:uid="{EBCE9B6B-340F-4C64-964B-563D0EF89E25}"/>
+    <hyperlink ref="G64" r:id="rId4" xr:uid="{890B158D-5E21-4ADC-882C-DA4367AEDEA0}"/>
+    <hyperlink ref="G48" r:id="rId5" xr:uid="{DDD0730F-D557-4E25-A0C0-CF11371FE9AE}"/>
+    <hyperlink ref="G90" r:id="rId6" xr:uid="{089A9BF8-9681-42D1-8FD9-118A1960AEF9}"/>
+    <hyperlink ref="G85" r:id="rId7" xr:uid="{A7D8A8BF-DF29-494D-A0A8-AF2DCD6B40BD}"/>
+    <hyperlink ref="G16" r:id="rId8" xr:uid="{59F010F0-95E1-48C4-B5AB-C4FC5590C6E7}"/>
+    <hyperlink ref="G17" r:id="rId9" xr:uid="{39175177-77D4-4015-806B-72E21FC6C7D3}"/>
+    <hyperlink ref="G18" r:id="rId10" location="19" xr:uid="{3A67EAAF-0637-4983-BA15-A4489ED6DF60}"/>
+    <hyperlink ref="G20" r:id="rId11" xr:uid="{42FC376D-13E8-4383-9023-61E043339EE8}"/>
+    <hyperlink ref="G21" r:id="rId12" xr:uid="{C8111356-36A3-4967-A3D1-D82E49757C85}"/>
+    <hyperlink ref="G23" r:id="rId13" xr:uid="{D7042514-A462-4EDE-AE96-567CF3659E5E}"/>
+    <hyperlink ref="G24" r:id="rId14" xr:uid="{970CCD77-024A-48BC-A6AE-7338B0AE3A51}"/>
+    <hyperlink ref="G25" r:id="rId15" xr:uid="{E86B1202-4B08-469B-859D-03655FC83C8D}"/>
+    <hyperlink ref="G26" r:id="rId16" xr:uid="{D1C614EA-BCFA-48A1-A4DC-B996BEF8CA58}"/>
+    <hyperlink ref="G38" r:id="rId17" xr:uid="{E27794D7-CA73-4BDA-AB71-C137F994C72A}"/>
+    <hyperlink ref="G39" r:id="rId18" xr:uid="{B4D2CE99-0401-4FAD-A519-32602E8932BD}"/>
+    <hyperlink ref="G40" r:id="rId19" xr:uid="{3269518A-500E-4DD5-930F-6FB67804B67E}"/>
+    <hyperlink ref="G42" r:id="rId20" xr:uid="{E7B62B90-8CF8-4D1A-98FE-04FB7EF1C243}"/>
+    <hyperlink ref="G65" r:id="rId21" xr:uid="{EBC823FB-CAED-484B-A73B-7DB183F8E2A0}"/>
+    <hyperlink ref="G66" r:id="rId22" xr:uid="{06B5A571-AA24-4CDB-8D3F-691193585E94}"/>
+    <hyperlink ref="G67" r:id="rId23" xr:uid="{6F630FAA-89BD-415A-B3EC-C846B84234D0}"/>
+    <hyperlink ref="G68" r:id="rId24" xr:uid="{CB856D25-5213-49C0-B8F0-E834B0DDD444}"/>
+    <hyperlink ref="G76" r:id="rId25" xr:uid="{7ADBBDA7-9F4E-4F27-9B68-2BAA935E777D}"/>
+    <hyperlink ref="G77" r:id="rId26" xr:uid="{D2815E43-9EA9-427B-95CE-E759E0E9C816}"/>
+    <hyperlink ref="G86" r:id="rId27" xr:uid="{035EB779-8DE3-402B-886E-B2D3DA288904}"/>
+    <hyperlink ref="G88" r:id="rId28" xr:uid="{8255171C-558C-4CF9-B934-D8CF84205AB5}"/>
+    <hyperlink ref="G87" r:id="rId29" xr:uid="{9C3AA28E-D4AD-46EE-AFCD-11E4589224F3}"/>
+    <hyperlink ref="G89" r:id="rId30" xr:uid="{D5A3774F-5EB7-45F1-8758-BE6E6C8A78EE}"/>
+    <hyperlink ref="G126" r:id="rId31" xr:uid="{19F83A1F-3E80-47BC-A7C9-0B8706BC266D}"/>
+    <hyperlink ref="G2" r:id="rId32" xr:uid="{E5857682-DF6E-43E2-90D4-9E08D073E748}"/>
+    <hyperlink ref="G6" r:id="rId33" xr:uid="{D99B7C9F-3427-4B51-83EA-811544F0425D}"/>
+    <hyperlink ref="G7" r:id="rId34" xr:uid="{A5EEF38D-D7B2-44D1-908F-9EA61329AA79}"/>
+    <hyperlink ref="G8" r:id="rId35" xr:uid="{9BA7888C-4116-4DEC-BBF5-FAF77B17558F}"/>
+    <hyperlink ref="G9" r:id="rId36" xr:uid="{56AE1F90-1CE2-49E2-BAD0-ED0A961D30A6}"/>
+    <hyperlink ref="G10" r:id="rId37" xr:uid="{F5F0EE82-324C-4814-A5F7-B64693CB795B}"/>
+    <hyperlink ref="G11" r:id="rId38" xr:uid="{12F00E55-F35D-44B1-A891-6FF8AEB8D1E4}"/>
+    <hyperlink ref="G12" r:id="rId39" xr:uid="{BAE39C2A-89E8-41BC-883B-7DBB49762EBC}"/>
+    <hyperlink ref="G27" r:id="rId40" xr:uid="{8A96DCED-9AB2-4887-B501-B944E550249A}"/>
+    <hyperlink ref="G28" r:id="rId41" xr:uid="{D8EDF7F8-DF6C-44A7-84DC-861F29CA5246}"/>
+    <hyperlink ref="G29" r:id="rId42" xr:uid="{79AB7990-0C11-4D7C-B6A2-DE1C974F881E}"/>
+    <hyperlink ref="G30" r:id="rId43" xr:uid="{A0BCFA8F-F79C-4EB8-BFCB-C0A178B2BFDD}"/>
+    <hyperlink ref="G31" r:id="rId44" xr:uid="{5E467FDA-FF53-4929-A703-890E7681E375}"/>
+    <hyperlink ref="G32" r:id="rId45" xr:uid="{37D37875-8AE7-4F66-AB15-77D46A6E2C4D}"/>
+    <hyperlink ref="G33" r:id="rId46" xr:uid="{6FC4AAEB-37DE-4040-84E0-B663D8DE1A2A}"/>
+    <hyperlink ref="G34" r:id="rId47" xr:uid="{21A46774-2C31-45E7-BE4E-BF17EF0BA0C8}"/>
+    <hyperlink ref="G35" r:id="rId48" xr:uid="{9C19AB85-62B5-4113-BD75-F9F01F87730E}"/>
+    <hyperlink ref="G36" r:id="rId49" xr:uid="{977206D6-5560-4454-B771-7F9D1629165E}"/>
+    <hyperlink ref="G37" r:id="rId50" xr:uid="{900D3FC1-B98C-4A29-8B8A-0DC88934C4FD}"/>
+    <hyperlink ref="G43" r:id="rId51" xr:uid="{C703A766-7513-4C67-B590-10160039293C}"/>
+    <hyperlink ref="G44" r:id="rId52" xr:uid="{A72C8C8A-A9CA-48B7-B1B4-23BD4B352D69}"/>
+    <hyperlink ref="G45" r:id="rId53" xr:uid="{79AEDCBE-5D55-43FF-97BF-8651272AC90A}"/>
+    <hyperlink ref="G46" r:id="rId54" xr:uid="{D4B2CDE2-D1C6-4992-A433-1C894639702D}"/>
+    <hyperlink ref="G47" r:id="rId55" xr:uid="{0F77D7DF-D151-4EA3-ADC6-E8B2DC184AAD}"/>
+    <hyperlink ref="G49" r:id="rId56" xr:uid="{3A14232B-8906-4A19-8B0D-D903AFEF59EE}"/>
+    <hyperlink ref="G50" r:id="rId57" xr:uid="{C8EF7D6F-EF98-4264-A773-0C08627E1533}"/>
+    <hyperlink ref="G51" r:id="rId58" location="v=onepage&amp;q=watson%20d'IBM&amp;f=false" xr:uid="{73DB6B4D-D6AE-4293-85D1-F99A42A4E96F}"/>
+    <hyperlink ref="G125" r:id="rId59" xr:uid="{CDDADBD8-2C82-420C-BF2C-1AE97542D465}"/>
+    <hyperlink ref="G124" r:id="rId60" xr:uid="{10D47DD8-99B8-409C-9DCC-2B7BEE2D5470}"/>
+    <hyperlink ref="G123" r:id="rId61" xr:uid="{D79D539B-6F25-47F9-98CF-C428D171C597}"/>
+    <hyperlink ref="G122" r:id="rId62" xr:uid="{2107EFC9-A970-485A-B4A3-5B76E85019C4}"/>
+    <hyperlink ref="G121" r:id="rId63" xr:uid="{D5A3AE6C-1FE5-415D-9D12-323B45F0D7AB}"/>
+    <hyperlink ref="G120" r:id="rId64" xr:uid="{4F194A6E-CB9E-48EA-B7AB-EB56B71EE961}"/>
+    <hyperlink ref="G119" r:id="rId65" display="https://fr.style.yahoo.com/6-astuces-passer-moins-temps-154000682.html?guccounter=1&amp;guce_referrer=aHR0cHM6Ly93d3cuZ29vZ2xlLmNvbS8&amp;guce_referrer_sig=AQAAAFP1Gu4S6nj-Vw-UrRkxAE5BG5ZuoJg9cBeJddlgZ0Ie1FouEBWoEaQw0XrKhCrPUMWnWX6_bLW2m83pVMGXnjFii9j254I4r_tGMFvVcbEQHrERC5XLvd41nqBARwgc5n0DK49pBxnVW7OJvwv38hVuhtKRcZQWGW2w4VeowDhF" xr:uid="{73C7E9C3-5773-4653-8376-D9FFB1B55332}"/>
+    <hyperlink ref="G118" r:id="rId66" xr:uid="{550E9B2B-3048-4658-BFE4-03824FCD6BCB}"/>
+    <hyperlink ref="G117" r:id="rId67" xr:uid="{3600C3FC-3CFA-41D8-90AF-50436434CC09}"/>
+    <hyperlink ref="G115" r:id="rId68" xr:uid="{292D75D5-18B6-43F9-A596-290380AEA8BC}"/>
+    <hyperlink ref="G114" r:id="rId69" xr:uid="{35861E47-1CA7-43E9-A790-014E9739AF37}"/>
+    <hyperlink ref="G113" r:id="rId70" xr:uid="{950C7787-AC57-4CE4-AA37-F6A4F66BF30E}"/>
+    <hyperlink ref="G112" r:id="rId71" xr:uid="{9A7D4A9F-3866-4E99-BD7B-C3A257109E06}"/>
+    <hyperlink ref="G52" r:id="rId72" xr:uid="{7899AFCD-20D3-4460-8638-0298EBB59A0F}"/>
+    <hyperlink ref="G53" r:id="rId73" xr:uid="{6A76A62A-2354-49DE-A260-EC6E449E67B2}"/>
+    <hyperlink ref="G54" r:id="rId74" xr:uid="{1FCA5F93-CBEE-4F46-8791-B2183ACA2D4D}"/>
+    <hyperlink ref="G55" r:id="rId75" xr:uid="{2B116653-90F9-42FC-877E-6424F1ECEF3B}"/>
+    <hyperlink ref="G56" r:id="rId76" xr:uid="{2DCFFC24-0B46-44B4-AE72-A4765AF42BC0}"/>
+    <hyperlink ref="G57" r:id="rId77" xr:uid="{13627100-86C2-48B0-8D19-8C4B41806634}"/>
+    <hyperlink ref="G58" r:id="rId78" xr:uid="{EEBCF4B3-90DF-4D2F-80B6-E91D208B80C2}"/>
+    <hyperlink ref="G59" r:id="rId79" xr:uid="{2D07692A-9DA6-447E-89F0-D920E1E65B15}"/>
+    <hyperlink ref="G60" r:id="rId80" xr:uid="{D9080218-CEAF-46B3-8EB5-5C9A97E811F9}"/>
+    <hyperlink ref="G61" r:id="rId81" xr:uid="{36866ECB-576F-414D-AE5D-9B64A35FB9C3}"/>
+    <hyperlink ref="G62" r:id="rId82" xr:uid="{6A38D58A-0894-445E-803F-D3BF99C50AEB}"/>
+    <hyperlink ref="G63" r:id="rId83" xr:uid="{F98A3B0B-AC0C-4EE7-A5EE-FC1B603CFFA6}"/>
+    <hyperlink ref="G69" r:id="rId84" xr:uid="{5E73D9C3-05C2-4E11-A7B7-B92DC02125E3}"/>
+    <hyperlink ref="G70" r:id="rId85" xr:uid="{9003E79C-A9DB-4656-B804-A6214D18F764}"/>
+    <hyperlink ref="G71" r:id="rId86" xr:uid="{B7B9C06E-B406-481D-8C73-F057300F7A19}"/>
+    <hyperlink ref="G72" r:id="rId87" xr:uid="{EA82C4EF-F2ED-4614-A148-0719896B245C}"/>
+    <hyperlink ref="G73" r:id="rId88" xr:uid="{1B116784-4279-49F1-99BC-C8F379313F21}"/>
+    <hyperlink ref="G74" r:id="rId89" xr:uid="{70835059-2379-4D6F-9760-23FBFE7145B5}"/>
+    <hyperlink ref="G75" r:id="rId90" xr:uid="{0141F4AC-F42C-4F6F-9459-E1FC8874DE49}"/>
+    <hyperlink ref="G78" r:id="rId91" xr:uid="{72C93F7A-761A-4F39-A724-87E08A110E8C}"/>
+    <hyperlink ref="G79" r:id="rId92" xr:uid="{6BAC6CA3-2437-4AF9-B126-9E377E5DBC2C}"/>
+    <hyperlink ref="G80" r:id="rId93" xr:uid="{67EB6ECD-F1DF-452D-86B2-C4A1D85B4AB6}"/>
+    <hyperlink ref="G81" r:id="rId94" xr:uid="{4836C8D9-3760-4491-BE35-4405BDC15643}"/>
+    <hyperlink ref="G82" r:id="rId95" xr:uid="{2CD46F8F-7D9F-49BE-B37B-11A4223ED3E6}"/>
+    <hyperlink ref="G83" r:id="rId96" xr:uid="{0EFCE615-97EE-429A-9C0F-DDA868A5F660}"/>
+    <hyperlink ref="G84" r:id="rId97" xr:uid="{C7DAE321-C2FE-45BD-8AA3-2B71F7BBA873}"/>
+    <hyperlink ref="G91" r:id="rId98" xr:uid="{D33768DE-5D03-4EA4-A87B-BA38D4AAEBCF}"/>
+    <hyperlink ref="G93" r:id="rId99" xr:uid="{ED620748-394A-4EC2-897C-BDE35A49DD63}"/>
+    <hyperlink ref="G92" r:id="rId100" xr:uid="{349F3221-C696-4010-8692-E5720CCC8064}"/>
+    <hyperlink ref="G94" r:id="rId101" xr:uid="{F9A1FECF-1926-4E05-94C8-B2D94D47AB1A}"/>
+    <hyperlink ref="G95" r:id="rId102" xr:uid="{C4479F1A-1A77-4A09-8795-9183EE8BB45A}"/>
+    <hyperlink ref="G96" r:id="rId103" xr:uid="{5E6B110F-8514-44C3-892F-F85BFEE53615}"/>
+    <hyperlink ref="G97" r:id="rId104" xr:uid="{793AB810-1DDE-497F-944F-CFD63315D376}"/>
+    <hyperlink ref="G98" r:id="rId105" xr:uid="{E9DB85A7-FD8F-4AE3-B56D-562FA0749CC8}"/>
+    <hyperlink ref="G99" r:id="rId106" xr:uid="{DBA3B8A0-A9CB-448F-9667-9B5DD8C2C1ED}"/>
+    <hyperlink ref="G100" r:id="rId107" xr:uid="{E5D259F3-89A4-4336-8A80-7DC4C69420DA}"/>
+    <hyperlink ref="G101" r:id="rId108" xr:uid="{C8184A6A-F156-4495-842A-167F447FE326}"/>
+    <hyperlink ref="G103" r:id="rId109" xr:uid="{EA201C5A-F50E-4369-8289-B40AE1296DCA}"/>
+    <hyperlink ref="G104" r:id="rId110" xr:uid="{1F2A81FB-3CB8-494F-ABB9-F8BB2ED5CBAA}"/>
+    <hyperlink ref="G106" r:id="rId111" xr:uid="{80907635-0758-4C7A-9A93-298BC5DF7E5B}"/>
+    <hyperlink ref="G105" r:id="rId112" xr:uid="{57146C7E-A1B4-4ED2-A463-6F8234810B4C}"/>
+    <hyperlink ref="G102" r:id="rId113" xr:uid="{971CF8FC-3751-4E61-B598-4A71A2E0F4C3}"/>
+    <hyperlink ref="G107" r:id="rId114" xr:uid="{97C2183F-5E41-4EC2-AA49-4DF464A5490D}"/>
+    <hyperlink ref="G108" r:id="rId115" xr:uid="{04B49D3E-F702-40EA-AC2C-0F6769B7A412}"/>
+    <hyperlink ref="G109" r:id="rId116" xr:uid="{0FC51104-3524-45D6-ACDD-C94AD0AECD19}"/>
+    <hyperlink ref="G110" r:id="rId117" xr:uid="{E6BAA5ED-388E-4712-A32C-242BBF6ED3F8}"/>
+    <hyperlink ref="G111" r:id="rId118" xr:uid="{6E5DFF6E-7F66-4D4C-AD81-B0A7B27AC473}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId119"/>
